--- a/Requisitos y tareas.xlsx
+++ b/Requisitos y tareas.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh6sfsNye6eB0cAfK16Fn5/jci0Aw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miM4y0C+z0BsJTDEPXJP76yLKhctA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>REQUISITOS Y TAREAS</t>
   </si>
@@ -175,6 +175,39 @@
   </si>
   <si>
     <t>APLICACIÓN EN INGLÉS</t>
+  </si>
+  <si>
+    <t>CONEXIÓN CON API REST</t>
+  </si>
+  <si>
+    <t>CONEXIÓN CON BINANCE</t>
+  </si>
+  <si>
+    <t>ELECCIÓN PAR DE MONEDA</t>
+  </si>
+  <si>
+    <t>RECUPERAR CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>REPETIR CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>2FA</t>
+  </si>
+  <si>
+    <t>ENCRIPTAR CONTRASEÑA</t>
+  </si>
+  <si>
+    <t>CONSULTAR WALLET</t>
+  </si>
+  <si>
+    <t>CURSOS AYUDA TRADING</t>
+  </si>
+  <si>
+    <t>FILTRAR FOROS</t>
+  </si>
+  <si>
+    <t>CONECTAR CUENTA GOOGLE</t>
   </si>
 </sst>
 </file>
@@ -185,7 +218,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="d&quot; de &quot;mmmm yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -217,10 +250,6 @@
       <name val="Calibri"/>
     </font>
     <font/>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -260,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -325,32 +354,24 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1179,37 +1200,37 @@
         <f>SUM(J23:J24)</f>
         <v>7.5</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="27" t="s">
+      <c r="G23" s="26"/>
+      <c r="H23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="15">
         <v>5.0</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="15">
         <v>3.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="27" t="s">
+      <c r="G24" s="26"/>
+      <c r="H24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="15">
         <v>5.0</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="15">
         <v>4.5</v>
       </c>
     </row>
@@ -1231,7 +1252,7 @@
       </c>
       <c r="J25" s="20">
         <f>SUM(J26:J27)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>25</v>
@@ -1274,7 +1295,9 @@
       <c r="I27" s="24">
         <v>2.0</v>
       </c>
-      <c r="J27" s="31"/>
+      <c r="J27" s="24">
+        <v>2.0</v>
+      </c>
       <c r="K27" s="8"/>
     </row>
     <row r="28">
@@ -1297,22 +1320,22 @@
         <f>SUM(J29)</f>
         <v>3</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="15">
         <v>6.0</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="15">
         <v>3.0</v>
       </c>
     </row>
@@ -1336,22 +1359,22 @@
         <f>J31</f>
         <v>2.5</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="15">
         <v>3.0</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="15">
         <v>2.5</v>
       </c>
       <c r="K31" s="14"/>
@@ -1372,8 +1395,8 @@
       <c r="I32" s="20">
         <v>5.0</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="26"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
@@ -1457,30 +1480,30 @@
       <c r="I36" s="20">
         <v>1.0</v>
       </c>
-      <c r="J36" s="32">
+      <c r="J36" s="20">
         <v>0.5</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="15">
         <v>1.0</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B38" s="18"/>
@@ -1498,28 +1521,28 @@
       <c r="J38" s="21">
         <v>1.0</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="K38" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="15">
         <v>0.5</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="28">
         <f>J38</f>
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="18"/>
@@ -1527,18 +1550,18 @@
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="35">
+      <c r="G40" s="19">
         <v>44491.0</v>
       </c>
       <c r="H40" s="18"/>
-      <c r="I40" s="32">
+      <c r="I40" s="20">
         <v>1.0</v>
       </c>
       <c r="J40" s="21">
         <f>J41</f>
         <v>1</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1546,3948 +1569,4087 @@
       <c r="A41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="28"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="15">
         <v>0.5</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="15">
         <v>1.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
+      <c r="A42" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="30">
+        <v>44519.0</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="29"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19">
+        <v>44519.0</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="17"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19">
+        <v>44519.0</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="17"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19">
+        <v>44519.0</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="17"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19">
+        <v>44519.0</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19">
+        <v>44519.0</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19">
+        <v>44519.0</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="30">
+        <v>44519.0</v>
+      </c>
+      <c r="H49" s="33"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="29"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19">
+        <v>44519.0</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19">
+        <v>44519.0</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="17"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19">
+        <v>44519.0</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="17"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="I103" s="34"/>
-      <c r="J103" s="34"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="I104" s="34"/>
-      <c r="J104" s="34"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="I107" s="34"/>
-      <c r="J107" s="34"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="I111" s="34"/>
-      <c r="J111" s="34"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="I112" s="34"/>
-      <c r="J112" s="34"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="I113" s="34"/>
-      <c r="J113" s="34"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="I114" s="34"/>
-      <c r="J114" s="34"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="I115" s="34"/>
-      <c r="J115" s="34"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="I116" s="34"/>
-      <c r="J116" s="34"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="I117" s="34"/>
-      <c r="J117" s="34"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="I118" s="34"/>
-      <c r="J118" s="34"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="I119" s="34"/>
-      <c r="J119" s="34"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="I120" s="34"/>
-      <c r="J120" s="34"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="I121" s="34"/>
-      <c r="J121" s="34"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="I122" s="34"/>
-      <c r="J122" s="34"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="I123" s="34"/>
-      <c r="J123" s="34"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="I124" s="34"/>
-      <c r="J124" s="34"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="I125" s="34"/>
-      <c r="J125" s="34"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="I126" s="34"/>
-      <c r="J126" s="34"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="I127" s="34"/>
-      <c r="J127" s="34"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="I128" s="34"/>
-      <c r="J128" s="34"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="28"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="I129" s="34"/>
-      <c r="J129" s="34"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="I130" s="34"/>
-      <c r="J130" s="34"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="I131" s="34"/>
-      <c r="J131" s="34"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="I132" s="34"/>
-      <c r="J132" s="34"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="I133" s="34"/>
-      <c r="J133" s="34"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="I134" s="34"/>
-      <c r="J134" s="34"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="I135" s="34"/>
-      <c r="J135" s="34"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="I136" s="34"/>
-      <c r="J136" s="34"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="28"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="I137" s="34"/>
-      <c r="J137" s="34"/>
+      <c r="I137" s="28"/>
+      <c r="J137" s="28"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="I138" s="34"/>
-      <c r="J138" s="34"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="28"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="I139" s="34"/>
-      <c r="J139" s="34"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="28"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="I140" s="34"/>
-      <c r="J140" s="34"/>
+      <c r="I140" s="28"/>
+      <c r="J140" s="28"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="I141" s="34"/>
-      <c r="J141" s="34"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="28"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="I142" s="34"/>
-      <c r="J142" s="34"/>
+      <c r="I142" s="28"/>
+      <c r="J142" s="28"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="I143" s="34"/>
-      <c r="J143" s="34"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="28"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="I144" s="34"/>
-      <c r="J144" s="34"/>
+      <c r="I144" s="28"/>
+      <c r="J144" s="28"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="I145" s="34"/>
-      <c r="J145" s="34"/>
+      <c r="I145" s="28"/>
+      <c r="J145" s="28"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="I146" s="34"/>
-      <c r="J146" s="34"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="28"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="I147" s="34"/>
-      <c r="J147" s="34"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="28"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="I148" s="34"/>
-      <c r="J148" s="34"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="28"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="I149" s="34"/>
-      <c r="J149" s="34"/>
+      <c r="I149" s="28"/>
+      <c r="J149" s="28"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="I150" s="34"/>
-      <c r="J150" s="34"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="28"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="I151" s="34"/>
-      <c r="J151" s="34"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="28"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="I152" s="34"/>
-      <c r="J152" s="34"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="28"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="I153" s="34"/>
-      <c r="J153" s="34"/>
+      <c r="I153" s="28"/>
+      <c r="J153" s="28"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="I154" s="34"/>
-      <c r="J154" s="34"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="I155" s="34"/>
-      <c r="J155" s="34"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="I156" s="34"/>
-      <c r="J156" s="34"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="28"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="I157" s="34"/>
-      <c r="J157" s="34"/>
+      <c r="I157" s="28"/>
+      <c r="J157" s="28"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="I158" s="34"/>
-      <c r="J158" s="34"/>
+      <c r="I158" s="28"/>
+      <c r="J158" s="28"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="I159" s="34"/>
-      <c r="J159" s="34"/>
+      <c r="I159" s="28"/>
+      <c r="J159" s="28"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="I160" s="34"/>
-      <c r="J160" s="34"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="28"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="I161" s="34"/>
-      <c r="J161" s="34"/>
+      <c r="I161" s="28"/>
+      <c r="J161" s="28"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="I162" s="34"/>
-      <c r="J162" s="34"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="28"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="I163" s="34"/>
-      <c r="J163" s="34"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="28"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="I164" s="34"/>
-      <c r="J164" s="34"/>
+      <c r="I164" s="28"/>
+      <c r="J164" s="28"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="I165" s="34"/>
-      <c r="J165" s="34"/>
+      <c r="I165" s="28"/>
+      <c r="J165" s="28"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="I166" s="34"/>
-      <c r="J166" s="34"/>
+      <c r="I166" s="28"/>
+      <c r="J166" s="28"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="I167" s="34"/>
-      <c r="J167" s="34"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="28"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="I168" s="34"/>
-      <c r="J168" s="34"/>
+      <c r="I168" s="28"/>
+      <c r="J168" s="28"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="I169" s="34"/>
-      <c r="J169" s="34"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="28"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="I170" s="34"/>
-      <c r="J170" s="34"/>
+      <c r="I170" s="28"/>
+      <c r="J170" s="28"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="I171" s="34"/>
-      <c r="J171" s="34"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="I172" s="34"/>
-      <c r="J172" s="34"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="I173" s="34"/>
-      <c r="J173" s="34"/>
+      <c r="I173" s="28"/>
+      <c r="J173" s="28"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="I174" s="34"/>
-      <c r="J174" s="34"/>
+      <c r="I174" s="28"/>
+      <c r="J174" s="28"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="I175" s="34"/>
-      <c r="J175" s="34"/>
+      <c r="I175" s="28"/>
+      <c r="J175" s="28"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="I176" s="34"/>
-      <c r="J176" s="34"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="28"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="I177" s="34"/>
-      <c r="J177" s="34"/>
+      <c r="I177" s="28"/>
+      <c r="J177" s="28"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="I178" s="34"/>
-      <c r="J178" s="34"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="28"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="I179" s="34"/>
-      <c r="J179" s="34"/>
+      <c r="I179" s="28"/>
+      <c r="J179" s="28"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="I180" s="34"/>
-      <c r="J180" s="34"/>
+      <c r="I180" s="28"/>
+      <c r="J180" s="28"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="I181" s="34"/>
-      <c r="J181" s="34"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="28"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="I182" s="34"/>
-      <c r="J182" s="34"/>
+      <c r="I182" s="28"/>
+      <c r="J182" s="28"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="I183" s="34"/>
-      <c r="J183" s="34"/>
+      <c r="I183" s="28"/>
+      <c r="J183" s="28"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="I184" s="34"/>
-      <c r="J184" s="34"/>
+      <c r="I184" s="28"/>
+      <c r="J184" s="28"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="I185" s="34"/>
-      <c r="J185" s="34"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="28"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="I186" s="34"/>
-      <c r="J186" s="34"/>
+      <c r="I186" s="28"/>
+      <c r="J186" s="28"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="I187" s="34"/>
-      <c r="J187" s="34"/>
+      <c r="I187" s="28"/>
+      <c r="J187" s="28"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="I188" s="34"/>
-      <c r="J188" s="34"/>
+      <c r="I188" s="28"/>
+      <c r="J188" s="28"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="I189" s="34"/>
-      <c r="J189" s="34"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="28"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="I190" s="34"/>
-      <c r="J190" s="34"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="I191" s="34"/>
-      <c r="J191" s="34"/>
+      <c r="I191" s="28"/>
+      <c r="J191" s="28"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="I192" s="34"/>
-      <c r="J192" s="34"/>
+      <c r="I192" s="28"/>
+      <c r="J192" s="28"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="I193" s="34"/>
-      <c r="J193" s="34"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="I194" s="34"/>
-      <c r="J194" s="34"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="I195" s="34"/>
-      <c r="J195" s="34"/>
+      <c r="I195" s="28"/>
+      <c r="J195" s="28"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="I196" s="34"/>
-      <c r="J196" s="34"/>
+      <c r="I196" s="28"/>
+      <c r="J196" s="28"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="I197" s="34"/>
-      <c r="J197" s="34"/>
+      <c r="I197" s="28"/>
+      <c r="J197" s="28"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="I198" s="34"/>
-      <c r="J198" s="34"/>
+      <c r="I198" s="28"/>
+      <c r="J198" s="28"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="I199" s="34"/>
-      <c r="J199" s="34"/>
+      <c r="I199" s="28"/>
+      <c r="J199" s="28"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="I200" s="34"/>
-      <c r="J200" s="34"/>
+      <c r="I200" s="28"/>
+      <c r="J200" s="28"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="I201" s="34"/>
-      <c r="J201" s="34"/>
+      <c r="I201" s="28"/>
+      <c r="J201" s="28"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="I202" s="34"/>
-      <c r="J202" s="34"/>
+      <c r="I202" s="28"/>
+      <c r="J202" s="28"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="I203" s="34"/>
-      <c r="J203" s="34"/>
+      <c r="I203" s="28"/>
+      <c r="J203" s="28"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="I204" s="34"/>
-      <c r="J204" s="34"/>
+      <c r="I204" s="28"/>
+      <c r="J204" s="28"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="I205" s="34"/>
-      <c r="J205" s="34"/>
+      <c r="I205" s="28"/>
+      <c r="J205" s="28"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="I206" s="34"/>
-      <c r="J206" s="34"/>
+      <c r="I206" s="28"/>
+      <c r="J206" s="28"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="I207" s="34"/>
-      <c r="J207" s="34"/>
+      <c r="I207" s="28"/>
+      <c r="J207" s="28"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="I208" s="34"/>
-      <c r="J208" s="34"/>
+      <c r="I208" s="28"/>
+      <c r="J208" s="28"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="I209" s="34"/>
-      <c r="J209" s="34"/>
+      <c r="I209" s="28"/>
+      <c r="J209" s="28"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="I210" s="34"/>
-      <c r="J210" s="34"/>
+      <c r="I210" s="28"/>
+      <c r="J210" s="28"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="I211" s="34"/>
-      <c r="J211" s="34"/>
+      <c r="I211" s="28"/>
+      <c r="J211" s="28"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="I212" s="34"/>
-      <c r="J212" s="34"/>
+      <c r="I212" s="28"/>
+      <c r="J212" s="28"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="I213" s="34"/>
-      <c r="J213" s="34"/>
+      <c r="I213" s="28"/>
+      <c r="J213" s="28"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="I214" s="34"/>
-      <c r="J214" s="34"/>
+      <c r="I214" s="28"/>
+      <c r="J214" s="28"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="I215" s="34"/>
-      <c r="J215" s="34"/>
+      <c r="I215" s="28"/>
+      <c r="J215" s="28"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="I216" s="34"/>
-      <c r="J216" s="34"/>
+      <c r="I216" s="28"/>
+      <c r="J216" s="28"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="I217" s="34"/>
-      <c r="J217" s="34"/>
+      <c r="I217" s="28"/>
+      <c r="J217" s="28"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="I218" s="34"/>
-      <c r="J218" s="34"/>
+      <c r="I218" s="28"/>
+      <c r="J218" s="28"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="I219" s="34"/>
-      <c r="J219" s="34"/>
+      <c r="I219" s="28"/>
+      <c r="J219" s="28"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="I220" s="34"/>
-      <c r="J220" s="34"/>
+      <c r="I220" s="28"/>
+      <c r="J220" s="28"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="I221" s="34"/>
-      <c r="J221" s="34"/>
+      <c r="I221" s="28"/>
+      <c r="J221" s="28"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="I222" s="34"/>
-      <c r="J222" s="34"/>
+      <c r="I222" s="28"/>
+      <c r="J222" s="28"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="I223" s="34"/>
-      <c r="J223" s="34"/>
+      <c r="I223" s="28"/>
+      <c r="J223" s="28"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="I224" s="34"/>
-      <c r="J224" s="34"/>
+      <c r="I224" s="28"/>
+      <c r="J224" s="28"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="I225" s="34"/>
-      <c r="J225" s="34"/>
+      <c r="I225" s="28"/>
+      <c r="J225" s="28"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="I226" s="34"/>
-      <c r="J226" s="34"/>
+      <c r="I226" s="28"/>
+      <c r="J226" s="28"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="I227" s="34"/>
-      <c r="J227" s="34"/>
+      <c r="I227" s="28"/>
+      <c r="J227" s="28"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="I228" s="34"/>
-      <c r="J228" s="34"/>
+      <c r="I228" s="28"/>
+      <c r="J228" s="28"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="I229" s="34"/>
-      <c r="J229" s="34"/>
+      <c r="I229" s="28"/>
+      <c r="J229" s="28"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="I230" s="34"/>
-      <c r="J230" s="34"/>
+      <c r="I230" s="28"/>
+      <c r="J230" s="28"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="I231" s="34"/>
-      <c r="J231" s="34"/>
+      <c r="I231" s="28"/>
+      <c r="J231" s="28"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="I232" s="34"/>
-      <c r="J232" s="34"/>
+      <c r="I232" s="28"/>
+      <c r="J232" s="28"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="I233" s="34"/>
-      <c r="J233" s="34"/>
+      <c r="I233" s="28"/>
+      <c r="J233" s="28"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="I234" s="34"/>
-      <c r="J234" s="34"/>
+      <c r="I234" s="28"/>
+      <c r="J234" s="28"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="I235" s="34"/>
-      <c r="J235" s="34"/>
+      <c r="I235" s="28"/>
+      <c r="J235" s="28"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="I236" s="34"/>
-      <c r="J236" s="34"/>
+      <c r="I236" s="28"/>
+      <c r="J236" s="28"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="I237" s="34"/>
-      <c r="J237" s="34"/>
+      <c r="I237" s="28"/>
+      <c r="J237" s="28"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="I238" s="34"/>
-      <c r="J238" s="34"/>
+      <c r="I238" s="28"/>
+      <c r="J238" s="28"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="I239" s="34"/>
-      <c r="J239" s="34"/>
+      <c r="I239" s="28"/>
+      <c r="J239" s="28"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="I240" s="34"/>
-      <c r="J240" s="34"/>
+      <c r="I240" s="28"/>
+      <c r="J240" s="28"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="I241" s="34"/>
-      <c r="J241" s="34"/>
+      <c r="I241" s="28"/>
+      <c r="J241" s="28"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="I242" s="34"/>
-      <c r="J242" s="34"/>
+      <c r="I242" s="28"/>
+      <c r="J242" s="28"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="I243" s="34"/>
-      <c r="J243" s="34"/>
+      <c r="I243" s="28"/>
+      <c r="J243" s="28"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="I244" s="34"/>
-      <c r="J244" s="34"/>
+      <c r="I244" s="28"/>
+      <c r="J244" s="28"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="I245" s="34"/>
-      <c r="J245" s="34"/>
+      <c r="I245" s="28"/>
+      <c r="J245" s="28"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="I246" s="34"/>
-      <c r="J246" s="34"/>
+      <c r="I246" s="28"/>
+      <c r="J246" s="28"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="I247" s="34"/>
-      <c r="J247" s="34"/>
+      <c r="I247" s="28"/>
+      <c r="J247" s="28"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="I248" s="34"/>
-      <c r="J248" s="34"/>
+      <c r="I248" s="28"/>
+      <c r="J248" s="28"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="I249" s="34"/>
-      <c r="J249" s="34"/>
+      <c r="I249" s="28"/>
+      <c r="J249" s="28"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="I250" s="34"/>
-      <c r="J250" s="34"/>
+      <c r="I250" s="28"/>
+      <c r="J250" s="28"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="I251" s="34"/>
-      <c r="J251" s="34"/>
+      <c r="I251" s="28"/>
+      <c r="J251" s="28"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="I252" s="34"/>
-      <c r="J252" s="34"/>
+      <c r="I252" s="28"/>
+      <c r="J252" s="28"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="I253" s="34"/>
-      <c r="J253" s="34"/>
+      <c r="I253" s="28"/>
+      <c r="J253" s="28"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="I254" s="34"/>
-      <c r="J254" s="34"/>
+      <c r="I254" s="28"/>
+      <c r="J254" s="28"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="I255" s="34"/>
-      <c r="J255" s="34"/>
+      <c r="I255" s="28"/>
+      <c r="J255" s="28"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="I256" s="34"/>
-      <c r="J256" s="34"/>
+      <c r="I256" s="28"/>
+      <c r="J256" s="28"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="I257" s="34"/>
-      <c r="J257" s="34"/>
+      <c r="I257" s="28"/>
+      <c r="J257" s="28"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="I258" s="34"/>
-      <c r="J258" s="34"/>
+      <c r="I258" s="28"/>
+      <c r="J258" s="28"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="I259" s="34"/>
-      <c r="J259" s="34"/>
+      <c r="I259" s="28"/>
+      <c r="J259" s="28"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="I260" s="34"/>
-      <c r="J260" s="34"/>
+      <c r="I260" s="28"/>
+      <c r="J260" s="28"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="I261" s="34"/>
-      <c r="J261" s="34"/>
+      <c r="I261" s="28"/>
+      <c r="J261" s="28"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="I262" s="34"/>
-      <c r="J262" s="34"/>
+      <c r="I262" s="28"/>
+      <c r="J262" s="28"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="I263" s="34"/>
-      <c r="J263" s="34"/>
+      <c r="I263" s="28"/>
+      <c r="J263" s="28"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="I264" s="34"/>
-      <c r="J264" s="34"/>
+      <c r="I264" s="28"/>
+      <c r="J264" s="28"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="I265" s="34"/>
-      <c r="J265" s="34"/>
+      <c r="I265" s="28"/>
+      <c r="J265" s="28"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="I266" s="34"/>
-      <c r="J266" s="34"/>
+      <c r="I266" s="28"/>
+      <c r="J266" s="28"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="I267" s="34"/>
-      <c r="J267" s="34"/>
+      <c r="I267" s="28"/>
+      <c r="J267" s="28"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="I268" s="34"/>
-      <c r="J268" s="34"/>
+      <c r="I268" s="28"/>
+      <c r="J268" s="28"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="I269" s="34"/>
-      <c r="J269" s="34"/>
+      <c r="I269" s="28"/>
+      <c r="J269" s="28"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="I270" s="34"/>
-      <c r="J270" s="34"/>
+      <c r="I270" s="28"/>
+      <c r="J270" s="28"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="I271" s="34"/>
-      <c r="J271" s="34"/>
+      <c r="I271" s="28"/>
+      <c r="J271" s="28"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="I272" s="34"/>
-      <c r="J272" s="34"/>
+      <c r="I272" s="28"/>
+      <c r="J272" s="28"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="I273" s="34"/>
-      <c r="J273" s="34"/>
+      <c r="I273" s="28"/>
+      <c r="J273" s="28"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="I274" s="34"/>
-      <c r="J274" s="34"/>
+      <c r="I274" s="28"/>
+      <c r="J274" s="28"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="I275" s="34"/>
-      <c r="J275" s="34"/>
+      <c r="I275" s="28"/>
+      <c r="J275" s="28"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="I276" s="34"/>
-      <c r="J276" s="34"/>
+      <c r="I276" s="28"/>
+      <c r="J276" s="28"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="I277" s="34"/>
-      <c r="J277" s="34"/>
+      <c r="I277" s="28"/>
+      <c r="J277" s="28"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="I278" s="34"/>
-      <c r="J278" s="34"/>
+      <c r="I278" s="28"/>
+      <c r="J278" s="28"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="I279" s="34"/>
-      <c r="J279" s="34"/>
+      <c r="I279" s="28"/>
+      <c r="J279" s="28"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="I280" s="34"/>
-      <c r="J280" s="34"/>
+      <c r="I280" s="28"/>
+      <c r="J280" s="28"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="I281" s="34"/>
-      <c r="J281" s="34"/>
+      <c r="I281" s="28"/>
+      <c r="J281" s="28"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="I282" s="34"/>
-      <c r="J282" s="34"/>
+      <c r="I282" s="28"/>
+      <c r="J282" s="28"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="I283" s="34"/>
-      <c r="J283" s="34"/>
+      <c r="I283" s="28"/>
+      <c r="J283" s="28"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="I284" s="34"/>
-      <c r="J284" s="34"/>
+      <c r="I284" s="28"/>
+      <c r="J284" s="28"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="I285" s="34"/>
-      <c r="J285" s="34"/>
+      <c r="I285" s="28"/>
+      <c r="J285" s="28"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="I286" s="34"/>
-      <c r="J286" s="34"/>
+      <c r="I286" s="28"/>
+      <c r="J286" s="28"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="I287" s="34"/>
-      <c r="J287" s="34"/>
+      <c r="I287" s="28"/>
+      <c r="J287" s="28"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="I288" s="34"/>
-      <c r="J288" s="34"/>
+      <c r="I288" s="28"/>
+      <c r="J288" s="28"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="I289" s="34"/>
-      <c r="J289" s="34"/>
+      <c r="I289" s="28"/>
+      <c r="J289" s="28"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="I290" s="34"/>
-      <c r="J290" s="34"/>
+      <c r="I290" s="28"/>
+      <c r="J290" s="28"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="I291" s="34"/>
-      <c r="J291" s="34"/>
+      <c r="I291" s="28"/>
+      <c r="J291" s="28"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="I292" s="34"/>
-      <c r="J292" s="34"/>
+      <c r="I292" s="28"/>
+      <c r="J292" s="28"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="I293" s="34"/>
-      <c r="J293" s="34"/>
+      <c r="I293" s="28"/>
+      <c r="J293" s="28"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="I294" s="34"/>
-      <c r="J294" s="34"/>
+      <c r="I294" s="28"/>
+      <c r="J294" s="28"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="I295" s="34"/>
-      <c r="J295" s="34"/>
+      <c r="I295" s="28"/>
+      <c r="J295" s="28"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="I296" s="34"/>
-      <c r="J296" s="34"/>
+      <c r="I296" s="28"/>
+      <c r="J296" s="28"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="I297" s="34"/>
-      <c r="J297" s="34"/>
+      <c r="I297" s="28"/>
+      <c r="J297" s="28"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="I298" s="34"/>
-      <c r="J298" s="34"/>
+      <c r="I298" s="28"/>
+      <c r="J298" s="28"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="I299" s="34"/>
-      <c r="J299" s="34"/>
+      <c r="I299" s="28"/>
+      <c r="J299" s="28"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="I300" s="34"/>
-      <c r="J300" s="34"/>
+      <c r="I300" s="28"/>
+      <c r="J300" s="28"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="I301" s="34"/>
-      <c r="J301" s="34"/>
+      <c r="I301" s="28"/>
+      <c r="J301" s="28"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="I302" s="34"/>
-      <c r="J302" s="34"/>
+      <c r="I302" s="28"/>
+      <c r="J302" s="28"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="I303" s="34"/>
-      <c r="J303" s="34"/>
+      <c r="I303" s="28"/>
+      <c r="J303" s="28"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="I304" s="34"/>
-      <c r="J304" s="34"/>
+      <c r="I304" s="28"/>
+      <c r="J304" s="28"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="I305" s="34"/>
-      <c r="J305" s="34"/>
+      <c r="I305" s="28"/>
+      <c r="J305" s="28"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="I306" s="34"/>
-      <c r="J306" s="34"/>
+      <c r="I306" s="28"/>
+      <c r="J306" s="28"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="I307" s="34"/>
-      <c r="J307" s="34"/>
+      <c r="I307" s="28"/>
+      <c r="J307" s="28"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="I308" s="34"/>
-      <c r="J308" s="34"/>
+      <c r="I308" s="28"/>
+      <c r="J308" s="28"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="I309" s="34"/>
-      <c r="J309" s="34"/>
+      <c r="I309" s="28"/>
+      <c r="J309" s="28"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="I310" s="34"/>
-      <c r="J310" s="34"/>
+      <c r="I310" s="28"/>
+      <c r="J310" s="28"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="I311" s="34"/>
-      <c r="J311" s="34"/>
+      <c r="I311" s="28"/>
+      <c r="J311" s="28"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="I312" s="34"/>
-      <c r="J312" s="34"/>
+      <c r="I312" s="28"/>
+      <c r="J312" s="28"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="I313" s="34"/>
-      <c r="J313" s="34"/>
+      <c r="I313" s="28"/>
+      <c r="J313" s="28"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="I314" s="34"/>
-      <c r="J314" s="34"/>
+      <c r="I314" s="28"/>
+      <c r="J314" s="28"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="I315" s="34"/>
-      <c r="J315" s="34"/>
+      <c r="I315" s="28"/>
+      <c r="J315" s="28"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="I316" s="34"/>
-      <c r="J316" s="34"/>
+      <c r="I316" s="28"/>
+      <c r="J316" s="28"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="I317" s="34"/>
-      <c r="J317" s="34"/>
+      <c r="I317" s="28"/>
+      <c r="J317" s="28"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="I318" s="34"/>
-      <c r="J318" s="34"/>
+      <c r="I318" s="28"/>
+      <c r="J318" s="28"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="I319" s="34"/>
-      <c r="J319" s="34"/>
+      <c r="I319" s="28"/>
+      <c r="J319" s="28"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="I320" s="34"/>
-      <c r="J320" s="34"/>
+      <c r="I320" s="28"/>
+      <c r="J320" s="28"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="I321" s="34"/>
-      <c r="J321" s="34"/>
+      <c r="I321" s="28"/>
+      <c r="J321" s="28"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="I322" s="34"/>
-      <c r="J322" s="34"/>
+      <c r="I322" s="28"/>
+      <c r="J322" s="28"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="I323" s="34"/>
-      <c r="J323" s="34"/>
+      <c r="I323" s="28"/>
+      <c r="J323" s="28"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="I324" s="34"/>
-      <c r="J324" s="34"/>
+      <c r="I324" s="28"/>
+      <c r="J324" s="28"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="I325" s="34"/>
-      <c r="J325" s="34"/>
+      <c r="I325" s="28"/>
+      <c r="J325" s="28"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="I326" s="34"/>
-      <c r="J326" s="34"/>
+      <c r="I326" s="28"/>
+      <c r="J326" s="28"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="I327" s="34"/>
-      <c r="J327" s="34"/>
+      <c r="I327" s="28"/>
+      <c r="J327" s="28"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="I328" s="34"/>
-      <c r="J328" s="34"/>
+      <c r="I328" s="28"/>
+      <c r="J328" s="28"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="I329" s="34"/>
-      <c r="J329" s="34"/>
+      <c r="I329" s="28"/>
+      <c r="J329" s="28"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="I330" s="34"/>
-      <c r="J330" s="34"/>
+      <c r="I330" s="28"/>
+      <c r="J330" s="28"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="I331" s="34"/>
-      <c r="J331" s="34"/>
+      <c r="I331" s="28"/>
+      <c r="J331" s="28"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="I332" s="34"/>
-      <c r="J332" s="34"/>
+      <c r="I332" s="28"/>
+      <c r="J332" s="28"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="I333" s="34"/>
-      <c r="J333" s="34"/>
+      <c r="I333" s="28"/>
+      <c r="J333" s="28"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="I334" s="34"/>
-      <c r="J334" s="34"/>
+      <c r="I334" s="28"/>
+      <c r="J334" s="28"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="I335" s="34"/>
-      <c r="J335" s="34"/>
+      <c r="I335" s="28"/>
+      <c r="J335" s="28"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="I336" s="34"/>
-      <c r="J336" s="34"/>
+      <c r="I336" s="28"/>
+      <c r="J336" s="28"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="I337" s="34"/>
-      <c r="J337" s="34"/>
+      <c r="I337" s="28"/>
+      <c r="J337" s="28"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="I338" s="34"/>
-      <c r="J338" s="34"/>
+      <c r="I338" s="28"/>
+      <c r="J338" s="28"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="I339" s="34"/>
-      <c r="J339" s="34"/>
+      <c r="I339" s="28"/>
+      <c r="J339" s="28"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="I340" s="34"/>
-      <c r="J340" s="34"/>
+      <c r="I340" s="28"/>
+      <c r="J340" s="28"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="I341" s="34"/>
-      <c r="J341" s="34"/>
+      <c r="I341" s="28"/>
+      <c r="J341" s="28"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="I342" s="34"/>
-      <c r="J342" s="34"/>
+      <c r="I342" s="28"/>
+      <c r="J342" s="28"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="I343" s="34"/>
-      <c r="J343" s="34"/>
+      <c r="I343" s="28"/>
+      <c r="J343" s="28"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="I344" s="34"/>
-      <c r="J344" s="34"/>
+      <c r="I344" s="28"/>
+      <c r="J344" s="28"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="I345" s="34"/>
-      <c r="J345" s="34"/>
+      <c r="I345" s="28"/>
+      <c r="J345" s="28"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="I346" s="34"/>
-      <c r="J346" s="34"/>
+      <c r="I346" s="28"/>
+      <c r="J346" s="28"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="I347" s="34"/>
-      <c r="J347" s="34"/>
+      <c r="I347" s="28"/>
+      <c r="J347" s="28"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="I348" s="34"/>
-      <c r="J348" s="34"/>
+      <c r="I348" s="28"/>
+      <c r="J348" s="28"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="I349" s="34"/>
-      <c r="J349" s="34"/>
+      <c r="I349" s="28"/>
+      <c r="J349" s="28"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="I350" s="34"/>
-      <c r="J350" s="34"/>
+      <c r="I350" s="28"/>
+      <c r="J350" s="28"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="I351" s="34"/>
-      <c r="J351" s="34"/>
+      <c r="I351" s="28"/>
+      <c r="J351" s="28"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="I352" s="34"/>
-      <c r="J352" s="34"/>
+      <c r="I352" s="28"/>
+      <c r="J352" s="28"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="I353" s="34"/>
-      <c r="J353" s="34"/>
+      <c r="I353" s="28"/>
+      <c r="J353" s="28"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="I354" s="34"/>
-      <c r="J354" s="34"/>
+      <c r="I354" s="28"/>
+      <c r="J354" s="28"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="I355" s="34"/>
-      <c r="J355" s="34"/>
+      <c r="I355" s="28"/>
+      <c r="J355" s="28"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="I356" s="34"/>
-      <c r="J356" s="34"/>
+      <c r="I356" s="28"/>
+      <c r="J356" s="28"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="I357" s="34"/>
-      <c r="J357" s="34"/>
+      <c r="I357" s="28"/>
+      <c r="J357" s="28"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="I358" s="34"/>
-      <c r="J358" s="34"/>
+      <c r="I358" s="28"/>
+      <c r="J358" s="28"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="I359" s="34"/>
-      <c r="J359" s="34"/>
+      <c r="I359" s="28"/>
+      <c r="J359" s="28"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="I360" s="34"/>
-      <c r="J360" s="34"/>
+      <c r="I360" s="28"/>
+      <c r="J360" s="28"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="I361" s="34"/>
-      <c r="J361" s="34"/>
+      <c r="I361" s="28"/>
+      <c r="J361" s="28"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="I362" s="34"/>
-      <c r="J362" s="34"/>
+      <c r="I362" s="28"/>
+      <c r="J362" s="28"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="I363" s="34"/>
-      <c r="J363" s="34"/>
+      <c r="I363" s="28"/>
+      <c r="J363" s="28"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="I364" s="34"/>
-      <c r="J364" s="34"/>
+      <c r="I364" s="28"/>
+      <c r="J364" s="28"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="I365" s="34"/>
-      <c r="J365" s="34"/>
+      <c r="I365" s="28"/>
+      <c r="J365" s="28"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="I366" s="34"/>
-      <c r="J366" s="34"/>
+      <c r="I366" s="28"/>
+      <c r="J366" s="28"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="I367" s="34"/>
-      <c r="J367" s="34"/>
+      <c r="I367" s="28"/>
+      <c r="J367" s="28"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="I368" s="34"/>
-      <c r="J368" s="34"/>
+      <c r="I368" s="28"/>
+      <c r="J368" s="28"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="I369" s="34"/>
-      <c r="J369" s="34"/>
+      <c r="I369" s="28"/>
+      <c r="J369" s="28"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="I370" s="34"/>
-      <c r="J370" s="34"/>
+      <c r="I370" s="28"/>
+      <c r="J370" s="28"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="I371" s="34"/>
-      <c r="J371" s="34"/>
+      <c r="I371" s="28"/>
+      <c r="J371" s="28"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="I372" s="34"/>
-      <c r="J372" s="34"/>
+      <c r="I372" s="28"/>
+      <c r="J372" s="28"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="I373" s="34"/>
-      <c r="J373" s="34"/>
+      <c r="I373" s="28"/>
+      <c r="J373" s="28"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="I374" s="34"/>
-      <c r="J374" s="34"/>
+      <c r="I374" s="28"/>
+      <c r="J374" s="28"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="I375" s="34"/>
-      <c r="J375" s="34"/>
+      <c r="I375" s="28"/>
+      <c r="J375" s="28"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="I376" s="34"/>
-      <c r="J376" s="34"/>
+      <c r="I376" s="28"/>
+      <c r="J376" s="28"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="I377" s="34"/>
-      <c r="J377" s="34"/>
+      <c r="I377" s="28"/>
+      <c r="J377" s="28"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="I378" s="34"/>
-      <c r="J378" s="34"/>
+      <c r="I378" s="28"/>
+      <c r="J378" s="28"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="I379" s="34"/>
-      <c r="J379" s="34"/>
+      <c r="I379" s="28"/>
+      <c r="J379" s="28"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="I380" s="34"/>
-      <c r="J380" s="34"/>
+      <c r="I380" s="28"/>
+      <c r="J380" s="28"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="I381" s="34"/>
-      <c r="J381" s="34"/>
+      <c r="I381" s="28"/>
+      <c r="J381" s="28"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="I382" s="34"/>
-      <c r="J382" s="34"/>
+      <c r="I382" s="28"/>
+      <c r="J382" s="28"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="I383" s="34"/>
-      <c r="J383" s="34"/>
+      <c r="I383" s="28"/>
+      <c r="J383" s="28"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="I384" s="34"/>
-      <c r="J384" s="34"/>
+      <c r="I384" s="28"/>
+      <c r="J384" s="28"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="I385" s="34"/>
-      <c r="J385" s="34"/>
+      <c r="I385" s="28"/>
+      <c r="J385" s="28"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="I386" s="34"/>
-      <c r="J386" s="34"/>
+      <c r="I386" s="28"/>
+      <c r="J386" s="28"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="I387" s="34"/>
-      <c r="J387" s="34"/>
+      <c r="I387" s="28"/>
+      <c r="J387" s="28"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="I388" s="34"/>
-      <c r="J388" s="34"/>
+      <c r="I388" s="28"/>
+      <c r="J388" s="28"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="I389" s="34"/>
-      <c r="J389" s="34"/>
+      <c r="I389" s="28"/>
+      <c r="J389" s="28"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="I390" s="34"/>
-      <c r="J390" s="34"/>
+      <c r="I390" s="28"/>
+      <c r="J390" s="28"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="I391" s="34"/>
-      <c r="J391" s="34"/>
+      <c r="I391" s="28"/>
+      <c r="J391" s="28"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="I392" s="34"/>
-      <c r="J392" s="34"/>
+      <c r="I392" s="28"/>
+      <c r="J392" s="28"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="I393" s="34"/>
-      <c r="J393" s="34"/>
+      <c r="I393" s="28"/>
+      <c r="J393" s="28"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="I394" s="34"/>
-      <c r="J394" s="34"/>
+      <c r="I394" s="28"/>
+      <c r="J394" s="28"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="I395" s="34"/>
-      <c r="J395" s="34"/>
+      <c r="I395" s="28"/>
+      <c r="J395" s="28"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="I396" s="34"/>
-      <c r="J396" s="34"/>
+      <c r="I396" s="28"/>
+      <c r="J396" s="28"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="I397" s="34"/>
-      <c r="J397" s="34"/>
+      <c r="I397" s="28"/>
+      <c r="J397" s="28"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="I398" s="34"/>
-      <c r="J398" s="34"/>
+      <c r="I398" s="28"/>
+      <c r="J398" s="28"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="I399" s="34"/>
-      <c r="J399" s="34"/>
+      <c r="I399" s="28"/>
+      <c r="J399" s="28"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="I400" s="34"/>
-      <c r="J400" s="34"/>
+      <c r="I400" s="28"/>
+      <c r="J400" s="28"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="I401" s="34"/>
-      <c r="J401" s="34"/>
+      <c r="I401" s="28"/>
+      <c r="J401" s="28"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="I402" s="34"/>
-      <c r="J402" s="34"/>
+      <c r="I402" s="28"/>
+      <c r="J402" s="28"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="I403" s="34"/>
-      <c r="J403" s="34"/>
+      <c r="I403" s="28"/>
+      <c r="J403" s="28"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="I404" s="34"/>
-      <c r="J404" s="34"/>
+      <c r="I404" s="28"/>
+      <c r="J404" s="28"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="I405" s="34"/>
-      <c r="J405" s="34"/>
+      <c r="I405" s="28"/>
+      <c r="J405" s="28"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="I406" s="34"/>
-      <c r="J406" s="34"/>
+      <c r="I406" s="28"/>
+      <c r="J406" s="28"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="I407" s="34"/>
-      <c r="J407" s="34"/>
+      <c r="I407" s="28"/>
+      <c r="J407" s="28"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="I408" s="34"/>
-      <c r="J408" s="34"/>
+      <c r="I408" s="28"/>
+      <c r="J408" s="28"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="I409" s="34"/>
-      <c r="J409" s="34"/>
+      <c r="I409" s="28"/>
+      <c r="J409" s="28"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="I410" s="34"/>
-      <c r="J410" s="34"/>
+      <c r="I410" s="28"/>
+      <c r="J410" s="28"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="I411" s="34"/>
-      <c r="J411" s="34"/>
+      <c r="I411" s="28"/>
+      <c r="J411" s="28"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="I412" s="34"/>
-      <c r="J412" s="34"/>
+      <c r="I412" s="28"/>
+      <c r="J412" s="28"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="I413" s="34"/>
-      <c r="J413" s="34"/>
+      <c r="I413" s="28"/>
+      <c r="J413" s="28"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="I414" s="34"/>
-      <c r="J414" s="34"/>
+      <c r="I414" s="28"/>
+      <c r="J414" s="28"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="I415" s="34"/>
-      <c r="J415" s="34"/>
+      <c r="I415" s="28"/>
+      <c r="J415" s="28"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="I416" s="34"/>
-      <c r="J416" s="34"/>
+      <c r="I416" s="28"/>
+      <c r="J416" s="28"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="I417" s="34"/>
-      <c r="J417" s="34"/>
+      <c r="I417" s="28"/>
+      <c r="J417" s="28"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="I418" s="34"/>
-      <c r="J418" s="34"/>
+      <c r="I418" s="28"/>
+      <c r="J418" s="28"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="I419" s="34"/>
-      <c r="J419" s="34"/>
+      <c r="I419" s="28"/>
+      <c r="J419" s="28"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="I420" s="34"/>
-      <c r="J420" s="34"/>
+      <c r="I420" s="28"/>
+      <c r="J420" s="28"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="I421" s="34"/>
-      <c r="J421" s="34"/>
+      <c r="I421" s="28"/>
+      <c r="J421" s="28"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="I422" s="34"/>
-      <c r="J422" s="34"/>
+      <c r="I422" s="28"/>
+      <c r="J422" s="28"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="I423" s="34"/>
-      <c r="J423" s="34"/>
+      <c r="I423" s="28"/>
+      <c r="J423" s="28"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="I424" s="34"/>
-      <c r="J424" s="34"/>
+      <c r="I424" s="28"/>
+      <c r="J424" s="28"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="I425" s="34"/>
-      <c r="J425" s="34"/>
+      <c r="I425" s="28"/>
+      <c r="J425" s="28"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="I426" s="34"/>
-      <c r="J426" s="34"/>
+      <c r="I426" s="28"/>
+      <c r="J426" s="28"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="I427" s="34"/>
-      <c r="J427" s="34"/>
+      <c r="I427" s="28"/>
+      <c r="J427" s="28"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="I428" s="34"/>
-      <c r="J428" s="34"/>
+      <c r="I428" s="28"/>
+      <c r="J428" s="28"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="I429" s="34"/>
-      <c r="J429" s="34"/>
+      <c r="I429" s="28"/>
+      <c r="J429" s="28"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="I430" s="34"/>
-      <c r="J430" s="34"/>
+      <c r="I430" s="28"/>
+      <c r="J430" s="28"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="I431" s="34"/>
-      <c r="J431" s="34"/>
+      <c r="I431" s="28"/>
+      <c r="J431" s="28"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="I432" s="34"/>
-      <c r="J432" s="34"/>
+      <c r="I432" s="28"/>
+      <c r="J432" s="28"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="I433" s="34"/>
-      <c r="J433" s="34"/>
+      <c r="I433" s="28"/>
+      <c r="J433" s="28"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="I434" s="34"/>
-      <c r="J434" s="34"/>
+      <c r="I434" s="28"/>
+      <c r="J434" s="28"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="I435" s="34"/>
-      <c r="J435" s="34"/>
+      <c r="I435" s="28"/>
+      <c r="J435" s="28"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="I436" s="34"/>
-      <c r="J436" s="34"/>
+      <c r="I436" s="28"/>
+      <c r="J436" s="28"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="I437" s="34"/>
-      <c r="J437" s="34"/>
+      <c r="I437" s="28"/>
+      <c r="J437" s="28"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="I438" s="34"/>
-      <c r="J438" s="34"/>
+      <c r="I438" s="28"/>
+      <c r="J438" s="28"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="I439" s="34"/>
-      <c r="J439" s="34"/>
+      <c r="I439" s="28"/>
+      <c r="J439" s="28"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="I440" s="34"/>
-      <c r="J440" s="34"/>
+      <c r="I440" s="28"/>
+      <c r="J440" s="28"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="I441" s="34"/>
-      <c r="J441" s="34"/>
+      <c r="I441" s="28"/>
+      <c r="J441" s="28"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="I442" s="34"/>
-      <c r="J442" s="34"/>
+      <c r="I442" s="28"/>
+      <c r="J442" s="28"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="I443" s="34"/>
-      <c r="J443" s="34"/>
+      <c r="I443" s="28"/>
+      <c r="J443" s="28"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="I444" s="34"/>
-      <c r="J444" s="34"/>
+      <c r="I444" s="28"/>
+      <c r="J444" s="28"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="I445" s="34"/>
-      <c r="J445" s="34"/>
+      <c r="I445" s="28"/>
+      <c r="J445" s="28"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="I446" s="34"/>
-      <c r="J446" s="34"/>
+      <c r="I446" s="28"/>
+      <c r="J446" s="28"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="I447" s="34"/>
-      <c r="J447" s="34"/>
+      <c r="I447" s="28"/>
+      <c r="J447" s="28"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="I448" s="34"/>
-      <c r="J448" s="34"/>
+      <c r="I448" s="28"/>
+      <c r="J448" s="28"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="I449" s="34"/>
-      <c r="J449" s="34"/>
+      <c r="I449" s="28"/>
+      <c r="J449" s="28"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="I450" s="34"/>
-      <c r="J450" s="34"/>
+      <c r="I450" s="28"/>
+      <c r="J450" s="28"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="I451" s="34"/>
-      <c r="J451" s="34"/>
+      <c r="I451" s="28"/>
+      <c r="J451" s="28"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="I452" s="34"/>
-      <c r="J452" s="34"/>
+      <c r="I452" s="28"/>
+      <c r="J452" s="28"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="I453" s="34"/>
-      <c r="J453" s="34"/>
+      <c r="I453" s="28"/>
+      <c r="J453" s="28"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="I454" s="34"/>
-      <c r="J454" s="34"/>
+      <c r="I454" s="28"/>
+      <c r="J454" s="28"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="I455" s="34"/>
-      <c r="J455" s="34"/>
+      <c r="I455" s="28"/>
+      <c r="J455" s="28"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="I456" s="34"/>
-      <c r="J456" s="34"/>
+      <c r="I456" s="28"/>
+      <c r="J456" s="28"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="I457" s="34"/>
-      <c r="J457" s="34"/>
+      <c r="I457" s="28"/>
+      <c r="J457" s="28"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="I458" s="34"/>
-      <c r="J458" s="34"/>
+      <c r="I458" s="28"/>
+      <c r="J458" s="28"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="I459" s="34"/>
-      <c r="J459" s="34"/>
+      <c r="I459" s="28"/>
+      <c r="J459" s="28"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="I460" s="34"/>
-      <c r="J460" s="34"/>
+      <c r="I460" s="28"/>
+      <c r="J460" s="28"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="I461" s="34"/>
-      <c r="J461" s="34"/>
+      <c r="I461" s="28"/>
+      <c r="J461" s="28"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="I462" s="34"/>
-      <c r="J462" s="34"/>
+      <c r="I462" s="28"/>
+      <c r="J462" s="28"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="I463" s="34"/>
-      <c r="J463" s="34"/>
+      <c r="I463" s="28"/>
+      <c r="J463" s="28"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="I464" s="34"/>
-      <c r="J464" s="34"/>
+      <c r="I464" s="28"/>
+      <c r="J464" s="28"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="I465" s="34"/>
-      <c r="J465" s="34"/>
+      <c r="I465" s="28"/>
+      <c r="J465" s="28"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="I466" s="34"/>
-      <c r="J466" s="34"/>
+      <c r="I466" s="28"/>
+      <c r="J466" s="28"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="I467" s="34"/>
-      <c r="J467" s="34"/>
+      <c r="I467" s="28"/>
+      <c r="J467" s="28"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="I468" s="34"/>
-      <c r="J468" s="34"/>
+      <c r="I468" s="28"/>
+      <c r="J468" s="28"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="I469" s="34"/>
-      <c r="J469" s="34"/>
+      <c r="I469" s="28"/>
+      <c r="J469" s="28"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="I470" s="34"/>
-      <c r="J470" s="34"/>
+      <c r="I470" s="28"/>
+      <c r="J470" s="28"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="I471" s="34"/>
-      <c r="J471" s="34"/>
+      <c r="I471" s="28"/>
+      <c r="J471" s="28"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="I472" s="34"/>
-      <c r="J472" s="34"/>
+      <c r="I472" s="28"/>
+      <c r="J472" s="28"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="I473" s="34"/>
-      <c r="J473" s="34"/>
+      <c r="I473" s="28"/>
+      <c r="J473" s="28"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="I474" s="34"/>
-      <c r="J474" s="34"/>
+      <c r="I474" s="28"/>
+      <c r="J474" s="28"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="I475" s="34"/>
-      <c r="J475" s="34"/>
+      <c r="I475" s="28"/>
+      <c r="J475" s="28"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="I476" s="34"/>
-      <c r="J476" s="34"/>
+      <c r="I476" s="28"/>
+      <c r="J476" s="28"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="I477" s="34"/>
-      <c r="J477" s="34"/>
+      <c r="I477" s="28"/>
+      <c r="J477" s="28"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="I478" s="34"/>
-      <c r="J478" s="34"/>
+      <c r="I478" s="28"/>
+      <c r="J478" s="28"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="I479" s="34"/>
-      <c r="J479" s="34"/>
+      <c r="I479" s="28"/>
+      <c r="J479" s="28"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="I480" s="34"/>
-      <c r="J480" s="34"/>
+      <c r="I480" s="28"/>
+      <c r="J480" s="28"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="I481" s="34"/>
-      <c r="J481" s="34"/>
+      <c r="I481" s="28"/>
+      <c r="J481" s="28"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="I482" s="34"/>
-      <c r="J482" s="34"/>
+      <c r="I482" s="28"/>
+      <c r="J482" s="28"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="I483" s="34"/>
-      <c r="J483" s="34"/>
+      <c r="I483" s="28"/>
+      <c r="J483" s="28"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="I484" s="34"/>
-      <c r="J484" s="34"/>
+      <c r="I484" s="28"/>
+      <c r="J484" s="28"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="I485" s="34"/>
-      <c r="J485" s="34"/>
+      <c r="I485" s="28"/>
+      <c r="J485" s="28"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="I486" s="34"/>
-      <c r="J486" s="34"/>
+      <c r="I486" s="28"/>
+      <c r="J486" s="28"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="I487" s="34"/>
-      <c r="J487" s="34"/>
+      <c r="I487" s="28"/>
+      <c r="J487" s="28"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="I488" s="34"/>
-      <c r="J488" s="34"/>
+      <c r="I488" s="28"/>
+      <c r="J488" s="28"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="I489" s="34"/>
-      <c r="J489" s="34"/>
+      <c r="I489" s="28"/>
+      <c r="J489" s="28"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="I490" s="34"/>
-      <c r="J490" s="34"/>
+      <c r="I490" s="28"/>
+      <c r="J490" s="28"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="I491" s="34"/>
-      <c r="J491" s="34"/>
+      <c r="I491" s="28"/>
+      <c r="J491" s="28"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="I492" s="34"/>
-      <c r="J492" s="34"/>
+      <c r="I492" s="28"/>
+      <c r="J492" s="28"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="I493" s="34"/>
-      <c r="J493" s="34"/>
+      <c r="I493" s="28"/>
+      <c r="J493" s="28"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="I494" s="34"/>
-      <c r="J494" s="34"/>
+      <c r="I494" s="28"/>
+      <c r="J494" s="28"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="I495" s="34"/>
-      <c r="J495" s="34"/>
+      <c r="I495" s="28"/>
+      <c r="J495" s="28"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="I496" s="34"/>
-      <c r="J496" s="34"/>
+      <c r="I496" s="28"/>
+      <c r="J496" s="28"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="I497" s="34"/>
-      <c r="J497" s="34"/>
+      <c r="I497" s="28"/>
+      <c r="J497" s="28"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="I498" s="34"/>
-      <c r="J498" s="34"/>
+      <c r="I498" s="28"/>
+      <c r="J498" s="28"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="I499" s="34"/>
-      <c r="J499" s="34"/>
+      <c r="I499" s="28"/>
+      <c r="J499" s="28"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="I500" s="34"/>
-      <c r="J500" s="34"/>
+      <c r="I500" s="28"/>
+      <c r="J500" s="28"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="I501" s="34"/>
-      <c r="J501" s="34"/>
+      <c r="I501" s="28"/>
+      <c r="J501" s="28"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="I502" s="34"/>
-      <c r="J502" s="34"/>
+      <c r="I502" s="28"/>
+      <c r="J502" s="28"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="I503" s="34"/>
-      <c r="J503" s="34"/>
+      <c r="I503" s="28"/>
+      <c r="J503" s="28"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="I504" s="34"/>
-      <c r="J504" s="34"/>
+      <c r="I504" s="28"/>
+      <c r="J504" s="28"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="I505" s="34"/>
-      <c r="J505" s="34"/>
+      <c r="I505" s="28"/>
+      <c r="J505" s="28"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="I506" s="34"/>
-      <c r="J506" s="34"/>
+      <c r="I506" s="28"/>
+      <c r="J506" s="28"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="I507" s="34"/>
-      <c r="J507" s="34"/>
+      <c r="I507" s="28"/>
+      <c r="J507" s="28"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="I508" s="34"/>
-      <c r="J508" s="34"/>
+      <c r="I508" s="28"/>
+      <c r="J508" s="28"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="I509" s="34"/>
-      <c r="J509" s="34"/>
+      <c r="I509" s="28"/>
+      <c r="J509" s="28"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="I510" s="34"/>
-      <c r="J510" s="34"/>
+      <c r="I510" s="28"/>
+      <c r="J510" s="28"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="I511" s="34"/>
-      <c r="J511" s="34"/>
+      <c r="I511" s="28"/>
+      <c r="J511" s="28"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="I512" s="34"/>
-      <c r="J512" s="34"/>
+      <c r="I512" s="28"/>
+      <c r="J512" s="28"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="I513" s="34"/>
-      <c r="J513" s="34"/>
+      <c r="I513" s="28"/>
+      <c r="J513" s="28"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="I514" s="34"/>
-      <c r="J514" s="34"/>
+      <c r="I514" s="28"/>
+      <c r="J514" s="28"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="I515" s="34"/>
-      <c r="J515" s="34"/>
+      <c r="I515" s="28"/>
+      <c r="J515" s="28"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="I516" s="34"/>
-      <c r="J516" s="34"/>
+      <c r="I516" s="28"/>
+      <c r="J516" s="28"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="I517" s="34"/>
-      <c r="J517" s="34"/>
+      <c r="I517" s="28"/>
+      <c r="J517" s="28"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="I518" s="34"/>
-      <c r="J518" s="34"/>
+      <c r="I518" s="28"/>
+      <c r="J518" s="28"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="I519" s="34"/>
-      <c r="J519" s="34"/>
+      <c r="I519" s="28"/>
+      <c r="J519" s="28"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="I520" s="34"/>
-      <c r="J520" s="34"/>
+      <c r="I520" s="28"/>
+      <c r="J520" s="28"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="I521" s="34"/>
-      <c r="J521" s="34"/>
+      <c r="I521" s="28"/>
+      <c r="J521" s="28"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="I522" s="34"/>
-      <c r="J522" s="34"/>
+      <c r="I522" s="28"/>
+      <c r="J522" s="28"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="I523" s="34"/>
-      <c r="J523" s="34"/>
+      <c r="I523" s="28"/>
+      <c r="J523" s="28"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="I524" s="34"/>
-      <c r="J524" s="34"/>
+      <c r="I524" s="28"/>
+      <c r="J524" s="28"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="I525" s="34"/>
-      <c r="J525" s="34"/>
+      <c r="I525" s="28"/>
+      <c r="J525" s="28"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="I526" s="34"/>
-      <c r="J526" s="34"/>
+      <c r="I526" s="28"/>
+      <c r="J526" s="28"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="I527" s="34"/>
-      <c r="J527" s="34"/>
+      <c r="I527" s="28"/>
+      <c r="J527" s="28"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="I528" s="34"/>
-      <c r="J528" s="34"/>
+      <c r="I528" s="28"/>
+      <c r="J528" s="28"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="I529" s="34"/>
-      <c r="J529" s="34"/>
+      <c r="I529" s="28"/>
+      <c r="J529" s="28"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="I530" s="34"/>
-      <c r="J530" s="34"/>
+      <c r="I530" s="28"/>
+      <c r="J530" s="28"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="I531" s="34"/>
-      <c r="J531" s="34"/>
+      <c r="I531" s="28"/>
+      <c r="J531" s="28"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="I532" s="34"/>
-      <c r="J532" s="34"/>
+      <c r="I532" s="28"/>
+      <c r="J532" s="28"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="I533" s="34"/>
-      <c r="J533" s="34"/>
+      <c r="I533" s="28"/>
+      <c r="J533" s="28"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="I534" s="34"/>
-      <c r="J534" s="34"/>
+      <c r="I534" s="28"/>
+      <c r="J534" s="28"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="I535" s="34"/>
-      <c r="J535" s="34"/>
+      <c r="I535" s="28"/>
+      <c r="J535" s="28"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="I536" s="34"/>
-      <c r="J536" s="34"/>
+      <c r="I536" s="28"/>
+      <c r="J536" s="28"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="I537" s="34"/>
-      <c r="J537" s="34"/>
+      <c r="I537" s="28"/>
+      <c r="J537" s="28"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="I538" s="34"/>
-      <c r="J538" s="34"/>
+      <c r="I538" s="28"/>
+      <c r="J538" s="28"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="I539" s="34"/>
-      <c r="J539" s="34"/>
+      <c r="I539" s="28"/>
+      <c r="J539" s="28"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="I540" s="34"/>
-      <c r="J540" s="34"/>
+      <c r="I540" s="28"/>
+      <c r="J540" s="28"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="I541" s="34"/>
-      <c r="J541" s="34"/>
+      <c r="I541" s="28"/>
+      <c r="J541" s="28"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="I542" s="34"/>
-      <c r="J542" s="34"/>
+      <c r="I542" s="28"/>
+      <c r="J542" s="28"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="I543" s="34"/>
-      <c r="J543" s="34"/>
+      <c r="I543" s="28"/>
+      <c r="J543" s="28"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="I544" s="34"/>
-      <c r="J544" s="34"/>
+      <c r="I544" s="28"/>
+      <c r="J544" s="28"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="I545" s="34"/>
-      <c r="J545" s="34"/>
+      <c r="I545" s="28"/>
+      <c r="J545" s="28"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="I546" s="34"/>
-      <c r="J546" s="34"/>
+      <c r="I546" s="28"/>
+      <c r="J546" s="28"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="I547" s="34"/>
-      <c r="J547" s="34"/>
+      <c r="I547" s="28"/>
+      <c r="J547" s="28"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="I548" s="34"/>
-      <c r="J548" s="34"/>
+      <c r="I548" s="28"/>
+      <c r="J548" s="28"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="I549" s="34"/>
-      <c r="J549" s="34"/>
+      <c r="I549" s="28"/>
+      <c r="J549" s="28"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="I550" s="34"/>
-      <c r="J550" s="34"/>
+      <c r="I550" s="28"/>
+      <c r="J550" s="28"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="I551" s="34"/>
-      <c r="J551" s="34"/>
+      <c r="I551" s="28"/>
+      <c r="J551" s="28"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="I552" s="34"/>
-      <c r="J552" s="34"/>
+      <c r="I552" s="28"/>
+      <c r="J552" s="28"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="I553" s="34"/>
-      <c r="J553" s="34"/>
+      <c r="I553" s="28"/>
+      <c r="J553" s="28"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="I554" s="34"/>
-      <c r="J554" s="34"/>
+      <c r="I554" s="28"/>
+      <c r="J554" s="28"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="I555" s="34"/>
-      <c r="J555" s="34"/>
+      <c r="I555" s="28"/>
+      <c r="J555" s="28"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="I556" s="34"/>
-      <c r="J556" s="34"/>
+      <c r="I556" s="28"/>
+      <c r="J556" s="28"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="I557" s="34"/>
-      <c r="J557" s="34"/>
+      <c r="I557" s="28"/>
+      <c r="J557" s="28"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="I558" s="34"/>
-      <c r="J558" s="34"/>
+      <c r="I558" s="28"/>
+      <c r="J558" s="28"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="I559" s="34"/>
-      <c r="J559" s="34"/>
+      <c r="I559" s="28"/>
+      <c r="J559" s="28"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="I560" s="34"/>
-      <c r="J560" s="34"/>
+      <c r="I560" s="28"/>
+      <c r="J560" s="28"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="I561" s="34"/>
-      <c r="J561" s="34"/>
+      <c r="I561" s="28"/>
+      <c r="J561" s="28"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="I562" s="34"/>
-      <c r="J562" s="34"/>
+      <c r="I562" s="28"/>
+      <c r="J562" s="28"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="I563" s="34"/>
-      <c r="J563" s="34"/>
+      <c r="I563" s="28"/>
+      <c r="J563" s="28"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="I564" s="34"/>
-      <c r="J564" s="34"/>
+      <c r="I564" s="28"/>
+      <c r="J564" s="28"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="I565" s="34"/>
-      <c r="J565" s="34"/>
+      <c r="I565" s="28"/>
+      <c r="J565" s="28"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="I566" s="34"/>
-      <c r="J566" s="34"/>
+      <c r="I566" s="28"/>
+      <c r="J566" s="28"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="I567" s="34"/>
-      <c r="J567" s="34"/>
+      <c r="I567" s="28"/>
+      <c r="J567" s="28"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="I568" s="34"/>
-      <c r="J568" s="34"/>
+      <c r="I568" s="28"/>
+      <c r="J568" s="28"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="I569" s="34"/>
-      <c r="J569" s="34"/>
+      <c r="I569" s="28"/>
+      <c r="J569" s="28"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="I570" s="34"/>
-      <c r="J570" s="34"/>
+      <c r="I570" s="28"/>
+      <c r="J570" s="28"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="I571" s="34"/>
-      <c r="J571" s="34"/>
+      <c r="I571" s="28"/>
+      <c r="J571" s="28"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="I572" s="34"/>
-      <c r="J572" s="34"/>
+      <c r="I572" s="28"/>
+      <c r="J572" s="28"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="I573" s="34"/>
-      <c r="J573" s="34"/>
+      <c r="I573" s="28"/>
+      <c r="J573" s="28"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="I574" s="34"/>
-      <c r="J574" s="34"/>
+      <c r="I574" s="28"/>
+      <c r="J574" s="28"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="I575" s="34"/>
-      <c r="J575" s="34"/>
+      <c r="I575" s="28"/>
+      <c r="J575" s="28"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="I576" s="34"/>
-      <c r="J576" s="34"/>
+      <c r="I576" s="28"/>
+      <c r="J576" s="28"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="I577" s="34"/>
-      <c r="J577" s="34"/>
+      <c r="I577" s="28"/>
+      <c r="J577" s="28"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="I578" s="34"/>
-      <c r="J578" s="34"/>
+      <c r="I578" s="28"/>
+      <c r="J578" s="28"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="I579" s="34"/>
-      <c r="J579" s="34"/>
+      <c r="I579" s="28"/>
+      <c r="J579" s="28"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="I580" s="34"/>
-      <c r="J580" s="34"/>
+      <c r="I580" s="28"/>
+      <c r="J580" s="28"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="I581" s="34"/>
-      <c r="J581" s="34"/>
+      <c r="I581" s="28"/>
+      <c r="J581" s="28"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="I582" s="34"/>
-      <c r="J582" s="34"/>
+      <c r="I582" s="28"/>
+      <c r="J582" s="28"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="I583" s="34"/>
-      <c r="J583" s="34"/>
+      <c r="I583" s="28"/>
+      <c r="J583" s="28"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="I584" s="34"/>
-      <c r="J584" s="34"/>
+      <c r="I584" s="28"/>
+      <c r="J584" s="28"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="I585" s="34"/>
-      <c r="J585" s="34"/>
+      <c r="I585" s="28"/>
+      <c r="J585" s="28"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="I586" s="34"/>
-      <c r="J586" s="34"/>
+      <c r="I586" s="28"/>
+      <c r="J586" s="28"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="I587" s="34"/>
-      <c r="J587" s="34"/>
+      <c r="I587" s="28"/>
+      <c r="J587" s="28"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="I588" s="34"/>
-      <c r="J588" s="34"/>
+      <c r="I588" s="28"/>
+      <c r="J588" s="28"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="I589" s="34"/>
-      <c r="J589" s="34"/>
+      <c r="I589" s="28"/>
+      <c r="J589" s="28"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="I590" s="34"/>
-      <c r="J590" s="34"/>
+      <c r="I590" s="28"/>
+      <c r="J590" s="28"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="I591" s="34"/>
-      <c r="J591" s="34"/>
+      <c r="I591" s="28"/>
+      <c r="J591" s="28"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="I592" s="34"/>
-      <c r="J592" s="34"/>
+      <c r="I592" s="28"/>
+      <c r="J592" s="28"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="I593" s="34"/>
-      <c r="J593" s="34"/>
+      <c r="I593" s="28"/>
+      <c r="J593" s="28"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="I594" s="34"/>
-      <c r="J594" s="34"/>
+      <c r="I594" s="28"/>
+      <c r="J594" s="28"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="I595" s="34"/>
-      <c r="J595" s="34"/>
+      <c r="I595" s="28"/>
+      <c r="J595" s="28"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="I596" s="34"/>
-      <c r="J596" s="34"/>
+      <c r="I596" s="28"/>
+      <c r="J596" s="28"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="I597" s="34"/>
-      <c r="J597" s="34"/>
+      <c r="I597" s="28"/>
+      <c r="J597" s="28"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="I598" s="34"/>
-      <c r="J598" s="34"/>
+      <c r="I598" s="28"/>
+      <c r="J598" s="28"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="I599" s="34"/>
-      <c r="J599" s="34"/>
+      <c r="I599" s="28"/>
+      <c r="J599" s="28"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="I600" s="34"/>
-      <c r="J600" s="34"/>
+      <c r="I600" s="28"/>
+      <c r="J600" s="28"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="I601" s="34"/>
-      <c r="J601" s="34"/>
+      <c r="I601" s="28"/>
+      <c r="J601" s="28"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="I602" s="34"/>
-      <c r="J602" s="34"/>
+      <c r="I602" s="28"/>
+      <c r="J602" s="28"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="I603" s="34"/>
-      <c r="J603" s="34"/>
+      <c r="I603" s="28"/>
+      <c r="J603" s="28"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="I604" s="34"/>
-      <c r="J604" s="34"/>
+      <c r="I604" s="28"/>
+      <c r="J604" s="28"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="I605" s="34"/>
-      <c r="J605" s="34"/>
+      <c r="I605" s="28"/>
+      <c r="J605" s="28"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="I606" s="34"/>
-      <c r="J606" s="34"/>
+      <c r="I606" s="28"/>
+      <c r="J606" s="28"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="I607" s="34"/>
-      <c r="J607" s="34"/>
+      <c r="I607" s="28"/>
+      <c r="J607" s="28"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="I608" s="34"/>
-      <c r="J608" s="34"/>
+      <c r="I608" s="28"/>
+      <c r="J608" s="28"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="I609" s="34"/>
-      <c r="J609" s="34"/>
+      <c r="I609" s="28"/>
+      <c r="J609" s="28"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="I610" s="34"/>
-      <c r="J610" s="34"/>
+      <c r="I610" s="28"/>
+      <c r="J610" s="28"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="I611" s="34"/>
-      <c r="J611" s="34"/>
+      <c r="I611" s="28"/>
+      <c r="J611" s="28"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="I612" s="34"/>
-      <c r="J612" s="34"/>
+      <c r="I612" s="28"/>
+      <c r="J612" s="28"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="I613" s="34"/>
-      <c r="J613" s="34"/>
+      <c r="I613" s="28"/>
+      <c r="J613" s="28"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="I614" s="34"/>
-      <c r="J614" s="34"/>
+      <c r="I614" s="28"/>
+      <c r="J614" s="28"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="I615" s="34"/>
-      <c r="J615" s="34"/>
+      <c r="I615" s="28"/>
+      <c r="J615" s="28"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="I616" s="34"/>
-      <c r="J616" s="34"/>
+      <c r="I616" s="28"/>
+      <c r="J616" s="28"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="I617" s="34"/>
-      <c r="J617" s="34"/>
+      <c r="I617" s="28"/>
+      <c r="J617" s="28"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="I618" s="34"/>
-      <c r="J618" s="34"/>
+      <c r="I618" s="28"/>
+      <c r="J618" s="28"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="I619" s="34"/>
-      <c r="J619" s="34"/>
+      <c r="I619" s="28"/>
+      <c r="J619" s="28"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="I620" s="34"/>
-      <c r="J620" s="34"/>
+      <c r="I620" s="28"/>
+      <c r="J620" s="28"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="I621" s="34"/>
-      <c r="J621" s="34"/>
+      <c r="I621" s="28"/>
+      <c r="J621" s="28"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="I622" s="34"/>
-      <c r="J622" s="34"/>
+      <c r="I622" s="28"/>
+      <c r="J622" s="28"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="I623" s="34"/>
-      <c r="J623" s="34"/>
+      <c r="I623" s="28"/>
+      <c r="J623" s="28"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="I624" s="34"/>
-      <c r="J624" s="34"/>
+      <c r="I624" s="28"/>
+      <c r="J624" s="28"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="I625" s="34"/>
-      <c r="J625" s="34"/>
+      <c r="I625" s="28"/>
+      <c r="J625" s="28"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="I626" s="34"/>
-      <c r="J626" s="34"/>
+      <c r="I626" s="28"/>
+      <c r="J626" s="28"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="I627" s="34"/>
-      <c r="J627" s="34"/>
+      <c r="I627" s="28"/>
+      <c r="J627" s="28"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="I628" s="34"/>
-      <c r="J628" s="34"/>
+      <c r="I628" s="28"/>
+      <c r="J628" s="28"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="I629" s="34"/>
-      <c r="J629" s="34"/>
+      <c r="I629" s="28"/>
+      <c r="J629" s="28"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="I630" s="34"/>
-      <c r="J630" s="34"/>
+      <c r="I630" s="28"/>
+      <c r="J630" s="28"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="I631" s="34"/>
-      <c r="J631" s="34"/>
+      <c r="I631" s="28"/>
+      <c r="J631" s="28"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="I632" s="34"/>
-      <c r="J632" s="34"/>
+      <c r="I632" s="28"/>
+      <c r="J632" s="28"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="I633" s="34"/>
-      <c r="J633" s="34"/>
+      <c r="I633" s="28"/>
+      <c r="J633" s="28"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="I634" s="34"/>
-      <c r="J634" s="34"/>
+      <c r="I634" s="28"/>
+      <c r="J634" s="28"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="I635" s="34"/>
-      <c r="J635" s="34"/>
+      <c r="I635" s="28"/>
+      <c r="J635" s="28"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="I636" s="34"/>
-      <c r="J636" s="34"/>
+      <c r="I636" s="28"/>
+      <c r="J636" s="28"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="I637" s="34"/>
-      <c r="J637" s="34"/>
+      <c r="I637" s="28"/>
+      <c r="J637" s="28"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="I638" s="34"/>
-      <c r="J638" s="34"/>
+      <c r="I638" s="28"/>
+      <c r="J638" s="28"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="I639" s="34"/>
-      <c r="J639" s="34"/>
+      <c r="I639" s="28"/>
+      <c r="J639" s="28"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="I640" s="34"/>
-      <c r="J640" s="34"/>
+      <c r="I640" s="28"/>
+      <c r="J640" s="28"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="I641" s="34"/>
-      <c r="J641" s="34"/>
+      <c r="I641" s="28"/>
+      <c r="J641" s="28"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="I642" s="34"/>
-      <c r="J642" s="34"/>
+      <c r="I642" s="28"/>
+      <c r="J642" s="28"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="I643" s="34"/>
-      <c r="J643" s="34"/>
+      <c r="I643" s="28"/>
+      <c r="J643" s="28"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="I644" s="34"/>
-      <c r="J644" s="34"/>
+      <c r="I644" s="28"/>
+      <c r="J644" s="28"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="I645" s="34"/>
-      <c r="J645" s="34"/>
+      <c r="I645" s="28"/>
+      <c r="J645" s="28"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="I646" s="34"/>
-      <c r="J646" s="34"/>
+      <c r="I646" s="28"/>
+      <c r="J646" s="28"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="I647" s="34"/>
-      <c r="J647" s="34"/>
+      <c r="I647" s="28"/>
+      <c r="J647" s="28"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="I648" s="34"/>
-      <c r="J648" s="34"/>
+      <c r="I648" s="28"/>
+      <c r="J648" s="28"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="I649" s="34"/>
-      <c r="J649" s="34"/>
+      <c r="I649" s="28"/>
+      <c r="J649" s="28"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="I650" s="34"/>
-      <c r="J650" s="34"/>
+      <c r="I650" s="28"/>
+      <c r="J650" s="28"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="I651" s="34"/>
-      <c r="J651" s="34"/>
+      <c r="I651" s="28"/>
+      <c r="J651" s="28"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="I652" s="34"/>
-      <c r="J652" s="34"/>
+      <c r="I652" s="28"/>
+      <c r="J652" s="28"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="I653" s="34"/>
-      <c r="J653" s="34"/>
+      <c r="I653" s="28"/>
+      <c r="J653" s="28"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="I654" s="34"/>
-      <c r="J654" s="34"/>
+      <c r="I654" s="28"/>
+      <c r="J654" s="28"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="I655" s="34"/>
-      <c r="J655" s="34"/>
+      <c r="I655" s="28"/>
+      <c r="J655" s="28"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="I656" s="34"/>
-      <c r="J656" s="34"/>
+      <c r="I656" s="28"/>
+      <c r="J656" s="28"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="I657" s="34"/>
-      <c r="J657" s="34"/>
+      <c r="I657" s="28"/>
+      <c r="J657" s="28"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="I658" s="34"/>
-      <c r="J658" s="34"/>
+      <c r="I658" s="28"/>
+      <c r="J658" s="28"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="I659" s="34"/>
-      <c r="J659" s="34"/>
+      <c r="I659" s="28"/>
+      <c r="J659" s="28"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="I660" s="34"/>
-      <c r="J660" s="34"/>
+      <c r="I660" s="28"/>
+      <c r="J660" s="28"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="I661" s="34"/>
-      <c r="J661" s="34"/>
+      <c r="I661" s="28"/>
+      <c r="J661" s="28"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="I662" s="34"/>
-      <c r="J662" s="34"/>
+      <c r="I662" s="28"/>
+      <c r="J662" s="28"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="I663" s="34"/>
-      <c r="J663" s="34"/>
+      <c r="I663" s="28"/>
+      <c r="J663" s="28"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="I664" s="34"/>
-      <c r="J664" s="34"/>
+      <c r="I664" s="28"/>
+      <c r="J664" s="28"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="I665" s="34"/>
-      <c r="J665" s="34"/>
+      <c r="I665" s="28"/>
+      <c r="J665" s="28"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="I666" s="34"/>
-      <c r="J666" s="34"/>
+      <c r="I666" s="28"/>
+      <c r="J666" s="28"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="I667" s="34"/>
-      <c r="J667" s="34"/>
+      <c r="I667" s="28"/>
+      <c r="J667" s="28"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="I668" s="34"/>
-      <c r="J668" s="34"/>
+      <c r="I668" s="28"/>
+      <c r="J668" s="28"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="I669" s="34"/>
-      <c r="J669" s="34"/>
+      <c r="I669" s="28"/>
+      <c r="J669" s="28"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="I670" s="34"/>
-      <c r="J670" s="34"/>
+      <c r="I670" s="28"/>
+      <c r="J670" s="28"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="I671" s="34"/>
-      <c r="J671" s="34"/>
+      <c r="I671" s="28"/>
+      <c r="J671" s="28"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="I672" s="34"/>
-      <c r="J672" s="34"/>
+      <c r="I672" s="28"/>
+      <c r="J672" s="28"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="I673" s="34"/>
-      <c r="J673" s="34"/>
+      <c r="I673" s="28"/>
+      <c r="J673" s="28"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="I674" s="34"/>
-      <c r="J674" s="34"/>
+      <c r="I674" s="28"/>
+      <c r="J674" s="28"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="I675" s="34"/>
-      <c r="J675" s="34"/>
+      <c r="I675" s="28"/>
+      <c r="J675" s="28"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="I676" s="34"/>
-      <c r="J676" s="34"/>
+      <c r="I676" s="28"/>
+      <c r="J676" s="28"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="I677" s="34"/>
-      <c r="J677" s="34"/>
+      <c r="I677" s="28"/>
+      <c r="J677" s="28"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="I678" s="34"/>
-      <c r="J678" s="34"/>
+      <c r="I678" s="28"/>
+      <c r="J678" s="28"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="I679" s="34"/>
-      <c r="J679" s="34"/>
+      <c r="I679" s="28"/>
+      <c r="J679" s="28"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="I680" s="34"/>
-      <c r="J680" s="34"/>
+      <c r="I680" s="28"/>
+      <c r="J680" s="28"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="I681" s="34"/>
-      <c r="J681" s="34"/>
+      <c r="I681" s="28"/>
+      <c r="J681" s="28"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="I682" s="34"/>
-      <c r="J682" s="34"/>
+      <c r="I682" s="28"/>
+      <c r="J682" s="28"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="I683" s="34"/>
-      <c r="J683" s="34"/>
+      <c r="I683" s="28"/>
+      <c r="J683" s="28"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="I684" s="34"/>
-      <c r="J684" s="34"/>
+      <c r="I684" s="28"/>
+      <c r="J684" s="28"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="I685" s="34"/>
-      <c r="J685" s="34"/>
+      <c r="I685" s="28"/>
+      <c r="J685" s="28"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="I686" s="34"/>
-      <c r="J686" s="34"/>
+      <c r="I686" s="28"/>
+      <c r="J686" s="28"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="I687" s="34"/>
-      <c r="J687" s="34"/>
+      <c r="I687" s="28"/>
+      <c r="J687" s="28"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="I688" s="34"/>
-      <c r="J688" s="34"/>
+      <c r="I688" s="28"/>
+      <c r="J688" s="28"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="I689" s="34"/>
-      <c r="J689" s="34"/>
+      <c r="I689" s="28"/>
+      <c r="J689" s="28"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="I690" s="34"/>
-      <c r="J690" s="34"/>
+      <c r="I690" s="28"/>
+      <c r="J690" s="28"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="I691" s="34"/>
-      <c r="J691" s="34"/>
+      <c r="I691" s="28"/>
+      <c r="J691" s="28"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="I692" s="34"/>
-      <c r="J692" s="34"/>
+      <c r="I692" s="28"/>
+      <c r="J692" s="28"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="I693" s="34"/>
-      <c r="J693" s="34"/>
+      <c r="I693" s="28"/>
+      <c r="J693" s="28"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="I694" s="34"/>
-      <c r="J694" s="34"/>
+      <c r="I694" s="28"/>
+      <c r="J694" s="28"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="I695" s="34"/>
-      <c r="J695" s="34"/>
+      <c r="I695" s="28"/>
+      <c r="J695" s="28"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="I696" s="34"/>
-      <c r="J696" s="34"/>
+      <c r="I696" s="28"/>
+      <c r="J696" s="28"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="I697" s="34"/>
-      <c r="J697" s="34"/>
+      <c r="I697" s="28"/>
+      <c r="J697" s="28"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="I698" s="34"/>
-      <c r="J698" s="34"/>
+      <c r="I698" s="28"/>
+      <c r="J698" s="28"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="I699" s="34"/>
-      <c r="J699" s="34"/>
+      <c r="I699" s="28"/>
+      <c r="J699" s="28"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="I700" s="34"/>
-      <c r="J700" s="34"/>
+      <c r="I700" s="28"/>
+      <c r="J700" s="28"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="I701" s="34"/>
-      <c r="J701" s="34"/>
+      <c r="I701" s="28"/>
+      <c r="J701" s="28"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="I702" s="34"/>
-      <c r="J702" s="34"/>
+      <c r="I702" s="28"/>
+      <c r="J702" s="28"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="I703" s="34"/>
-      <c r="J703" s="34"/>
+      <c r="I703" s="28"/>
+      <c r="J703" s="28"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="I704" s="34"/>
-      <c r="J704" s="34"/>
+      <c r="I704" s="28"/>
+      <c r="J704" s="28"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="I705" s="34"/>
-      <c r="J705" s="34"/>
+      <c r="I705" s="28"/>
+      <c r="J705" s="28"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="I706" s="34"/>
-      <c r="J706" s="34"/>
+      <c r="I706" s="28"/>
+      <c r="J706" s="28"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="I707" s="34"/>
-      <c r="J707" s="34"/>
+      <c r="I707" s="28"/>
+      <c r="J707" s="28"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="I708" s="34"/>
-      <c r="J708" s="34"/>
+      <c r="I708" s="28"/>
+      <c r="J708" s="28"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="I709" s="34"/>
-      <c r="J709" s="34"/>
+      <c r="I709" s="28"/>
+      <c r="J709" s="28"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="I710" s="34"/>
-      <c r="J710" s="34"/>
+      <c r="I710" s="28"/>
+      <c r="J710" s="28"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="I711" s="34"/>
-      <c r="J711" s="34"/>
+      <c r="I711" s="28"/>
+      <c r="J711" s="28"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="I712" s="34"/>
-      <c r="J712" s="34"/>
+      <c r="I712" s="28"/>
+      <c r="J712" s="28"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="I713" s="34"/>
-      <c r="J713" s="34"/>
+      <c r="I713" s="28"/>
+      <c r="J713" s="28"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="I714" s="34"/>
-      <c r="J714" s="34"/>
+      <c r="I714" s="28"/>
+      <c r="J714" s="28"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="I715" s="34"/>
-      <c r="J715" s="34"/>
+      <c r="I715" s="28"/>
+      <c r="J715" s="28"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="I716" s="34"/>
-      <c r="J716" s="34"/>
+      <c r="I716" s="28"/>
+      <c r="J716" s="28"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="I717" s="34"/>
-      <c r="J717" s="34"/>
+      <c r="I717" s="28"/>
+      <c r="J717" s="28"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="I718" s="34"/>
-      <c r="J718" s="34"/>
+      <c r="I718" s="28"/>
+      <c r="J718" s="28"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="I719" s="34"/>
-      <c r="J719" s="34"/>
+      <c r="I719" s="28"/>
+      <c r="J719" s="28"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="I720" s="34"/>
-      <c r="J720" s="34"/>
+      <c r="I720" s="28"/>
+      <c r="J720" s="28"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="I721" s="34"/>
-      <c r="J721" s="34"/>
+      <c r="I721" s="28"/>
+      <c r="J721" s="28"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="I722" s="34"/>
-      <c r="J722" s="34"/>
+      <c r="I722" s="28"/>
+      <c r="J722" s="28"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="I723" s="34"/>
-      <c r="J723" s="34"/>
+      <c r="I723" s="28"/>
+      <c r="J723" s="28"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="I724" s="34"/>
-      <c r="J724" s="34"/>
+      <c r="I724" s="28"/>
+      <c r="J724" s="28"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="I725" s="34"/>
-      <c r="J725" s="34"/>
+      <c r="I725" s="28"/>
+      <c r="J725" s="28"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="I726" s="34"/>
-      <c r="J726" s="34"/>
+      <c r="I726" s="28"/>
+      <c r="J726" s="28"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="I727" s="34"/>
-      <c r="J727" s="34"/>
+      <c r="I727" s="28"/>
+      <c r="J727" s="28"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="I728" s="34"/>
-      <c r="J728" s="34"/>
+      <c r="I728" s="28"/>
+      <c r="J728" s="28"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="I729" s="34"/>
-      <c r="J729" s="34"/>
+      <c r="I729" s="28"/>
+      <c r="J729" s="28"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="I730" s="34"/>
-      <c r="J730" s="34"/>
+      <c r="I730" s="28"/>
+      <c r="J730" s="28"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="I731" s="34"/>
-      <c r="J731" s="34"/>
+      <c r="I731" s="28"/>
+      <c r="J731" s="28"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="I732" s="34"/>
-      <c r="J732" s="34"/>
+      <c r="I732" s="28"/>
+      <c r="J732" s="28"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="I733" s="34"/>
-      <c r="J733" s="34"/>
+      <c r="I733" s="28"/>
+      <c r="J733" s="28"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="I734" s="34"/>
-      <c r="J734" s="34"/>
+      <c r="I734" s="28"/>
+      <c r="J734" s="28"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="I735" s="34"/>
-      <c r="J735" s="34"/>
+      <c r="I735" s="28"/>
+      <c r="J735" s="28"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="I736" s="34"/>
-      <c r="J736" s="34"/>
+      <c r="I736" s="28"/>
+      <c r="J736" s="28"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="I737" s="34"/>
-      <c r="J737" s="34"/>
+      <c r="I737" s="28"/>
+      <c r="J737" s="28"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="I738" s="34"/>
-      <c r="J738" s="34"/>
+      <c r="I738" s="28"/>
+      <c r="J738" s="28"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="I739" s="34"/>
-      <c r="J739" s="34"/>
+      <c r="I739" s="28"/>
+      <c r="J739" s="28"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="I740" s="34"/>
-      <c r="J740" s="34"/>
+      <c r="I740" s="28"/>
+      <c r="J740" s="28"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="I741" s="34"/>
-      <c r="J741" s="34"/>
+      <c r="I741" s="28"/>
+      <c r="J741" s="28"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="I742" s="34"/>
-      <c r="J742" s="34"/>
+      <c r="I742" s="28"/>
+      <c r="J742" s="28"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="I743" s="34"/>
-      <c r="J743" s="34"/>
+      <c r="I743" s="28"/>
+      <c r="J743" s="28"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="I744" s="34"/>
-      <c r="J744" s="34"/>
+      <c r="I744" s="28"/>
+      <c r="J744" s="28"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="I745" s="34"/>
-      <c r="J745" s="34"/>
+      <c r="I745" s="28"/>
+      <c r="J745" s="28"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="I746" s="34"/>
-      <c r="J746" s="34"/>
+      <c r="I746" s="28"/>
+      <c r="J746" s="28"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="I747" s="34"/>
-      <c r="J747" s="34"/>
+      <c r="I747" s="28"/>
+      <c r="J747" s="28"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="I748" s="34"/>
-      <c r="J748" s="34"/>
+      <c r="I748" s="28"/>
+      <c r="J748" s="28"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="I749" s="34"/>
-      <c r="J749" s="34"/>
+      <c r="I749" s="28"/>
+      <c r="J749" s="28"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="I750" s="34"/>
-      <c r="J750" s="34"/>
+      <c r="I750" s="28"/>
+      <c r="J750" s="28"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="I751" s="34"/>
-      <c r="J751" s="34"/>
+      <c r="I751" s="28"/>
+      <c r="J751" s="28"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="I752" s="34"/>
-      <c r="J752" s="34"/>
+      <c r="I752" s="28"/>
+      <c r="J752" s="28"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="I753" s="34"/>
-      <c r="J753" s="34"/>
+      <c r="I753" s="28"/>
+      <c r="J753" s="28"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="I754" s="34"/>
-      <c r="J754" s="34"/>
+      <c r="I754" s="28"/>
+      <c r="J754" s="28"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="I755" s="34"/>
-      <c r="J755" s="34"/>
+      <c r="I755" s="28"/>
+      <c r="J755" s="28"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="I756" s="34"/>
-      <c r="J756" s="34"/>
+      <c r="I756" s="28"/>
+      <c r="J756" s="28"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="I757" s="34"/>
-      <c r="J757" s="34"/>
+      <c r="I757" s="28"/>
+      <c r="J757" s="28"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="I758" s="34"/>
-      <c r="J758" s="34"/>
+      <c r="I758" s="28"/>
+      <c r="J758" s="28"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="I759" s="34"/>
-      <c r="J759" s="34"/>
+      <c r="I759" s="28"/>
+      <c r="J759" s="28"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="I760" s="34"/>
-      <c r="J760" s="34"/>
+      <c r="I760" s="28"/>
+      <c r="J760" s="28"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="I761" s="34"/>
-      <c r="J761" s="34"/>
+      <c r="I761" s="28"/>
+      <c r="J761" s="28"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="I762" s="34"/>
-      <c r="J762" s="34"/>
+      <c r="I762" s="28"/>
+      <c r="J762" s="28"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="I763" s="34"/>
-      <c r="J763" s="34"/>
+      <c r="I763" s="28"/>
+      <c r="J763" s="28"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="I764" s="34"/>
-      <c r="J764" s="34"/>
+      <c r="I764" s="28"/>
+      <c r="J764" s="28"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="I765" s="34"/>
-      <c r="J765" s="34"/>
+      <c r="I765" s="28"/>
+      <c r="J765" s="28"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="I766" s="34"/>
-      <c r="J766" s="34"/>
+      <c r="I766" s="28"/>
+      <c r="J766" s="28"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="I767" s="34"/>
-      <c r="J767" s="34"/>
+      <c r="I767" s="28"/>
+      <c r="J767" s="28"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="I768" s="34"/>
-      <c r="J768" s="34"/>
+      <c r="I768" s="28"/>
+      <c r="J768" s="28"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="I769" s="34"/>
-      <c r="J769" s="34"/>
+      <c r="I769" s="28"/>
+      <c r="J769" s="28"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="I770" s="34"/>
-      <c r="J770" s="34"/>
+      <c r="I770" s="28"/>
+      <c r="J770" s="28"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="I771" s="34"/>
-      <c r="J771" s="34"/>
+      <c r="I771" s="28"/>
+      <c r="J771" s="28"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="I772" s="34"/>
-      <c r="J772" s="34"/>
+      <c r="I772" s="28"/>
+      <c r="J772" s="28"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="I773" s="34"/>
-      <c r="J773" s="34"/>
+      <c r="I773" s="28"/>
+      <c r="J773" s="28"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="I774" s="34"/>
-      <c r="J774" s="34"/>
+      <c r="I774" s="28"/>
+      <c r="J774" s="28"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="I775" s="34"/>
-      <c r="J775" s="34"/>
+      <c r="I775" s="28"/>
+      <c r="J775" s="28"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="I776" s="34"/>
-      <c r="J776" s="34"/>
+      <c r="I776" s="28"/>
+      <c r="J776" s="28"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="I777" s="34"/>
-      <c r="J777" s="34"/>
+      <c r="I777" s="28"/>
+      <c r="J777" s="28"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="I778" s="34"/>
-      <c r="J778" s="34"/>
+      <c r="I778" s="28"/>
+      <c r="J778" s="28"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="I779" s="34"/>
-      <c r="J779" s="34"/>
+      <c r="I779" s="28"/>
+      <c r="J779" s="28"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="I780" s="34"/>
-      <c r="J780" s="34"/>
+      <c r="I780" s="28"/>
+      <c r="J780" s="28"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="I781" s="34"/>
-      <c r="J781" s="34"/>
+      <c r="I781" s="28"/>
+      <c r="J781" s="28"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="I782" s="34"/>
-      <c r="J782" s="34"/>
+      <c r="I782" s="28"/>
+      <c r="J782" s="28"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="I783" s="34"/>
-      <c r="J783" s="34"/>
+      <c r="I783" s="28"/>
+      <c r="J783" s="28"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="I784" s="34"/>
-      <c r="J784" s="34"/>
+      <c r="I784" s="28"/>
+      <c r="J784" s="28"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="I785" s="34"/>
-      <c r="J785" s="34"/>
+      <c r="I785" s="28"/>
+      <c r="J785" s="28"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="I786" s="34"/>
-      <c r="J786" s="34"/>
+      <c r="I786" s="28"/>
+      <c r="J786" s="28"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="I787" s="34"/>
-      <c r="J787" s="34"/>
+      <c r="I787" s="28"/>
+      <c r="J787" s="28"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="I788" s="34"/>
-      <c r="J788" s="34"/>
+      <c r="I788" s="28"/>
+      <c r="J788" s="28"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="I789" s="34"/>
-      <c r="J789" s="34"/>
+      <c r="I789" s="28"/>
+      <c r="J789" s="28"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="I790" s="34"/>
-      <c r="J790" s="34"/>
+      <c r="I790" s="28"/>
+      <c r="J790" s="28"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="I791" s="34"/>
-      <c r="J791" s="34"/>
+      <c r="I791" s="28"/>
+      <c r="J791" s="28"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="I792" s="34"/>
-      <c r="J792" s="34"/>
+      <c r="I792" s="28"/>
+      <c r="J792" s="28"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="I793" s="34"/>
-      <c r="J793" s="34"/>
+      <c r="I793" s="28"/>
+      <c r="J793" s="28"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="I794" s="34"/>
-      <c r="J794" s="34"/>
+      <c r="I794" s="28"/>
+      <c r="J794" s="28"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="I795" s="34"/>
-      <c r="J795" s="34"/>
+      <c r="I795" s="28"/>
+      <c r="J795" s="28"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="I796" s="34"/>
-      <c r="J796" s="34"/>
+      <c r="I796" s="28"/>
+      <c r="J796" s="28"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="I797" s="34"/>
-      <c r="J797" s="34"/>
+      <c r="I797" s="28"/>
+      <c r="J797" s="28"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="I798" s="34"/>
-      <c r="J798" s="34"/>
+      <c r="I798" s="28"/>
+      <c r="J798" s="28"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="I799" s="34"/>
-      <c r="J799" s="34"/>
+      <c r="I799" s="28"/>
+      <c r="J799" s="28"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="I800" s="34"/>
-      <c r="J800" s="34"/>
+      <c r="I800" s="28"/>
+      <c r="J800" s="28"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="I801" s="34"/>
-      <c r="J801" s="34"/>
+      <c r="I801" s="28"/>
+      <c r="J801" s="28"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="I802" s="34"/>
-      <c r="J802" s="34"/>
+      <c r="I802" s="28"/>
+      <c r="J802" s="28"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="I803" s="34"/>
-      <c r="J803" s="34"/>
+      <c r="I803" s="28"/>
+      <c r="J803" s="28"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="I804" s="34"/>
-      <c r="J804" s="34"/>
+      <c r="I804" s="28"/>
+      <c r="J804" s="28"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="I805" s="34"/>
-      <c r="J805" s="34"/>
+      <c r="I805" s="28"/>
+      <c r="J805" s="28"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="I806" s="34"/>
-      <c r="J806" s="34"/>
+      <c r="I806" s="28"/>
+      <c r="J806" s="28"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="I807" s="34"/>
-      <c r="J807" s="34"/>
+      <c r="I807" s="28"/>
+      <c r="J807" s="28"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="I808" s="34"/>
-      <c r="J808" s="34"/>
+      <c r="I808" s="28"/>
+      <c r="J808" s="28"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="I809" s="34"/>
-      <c r="J809" s="34"/>
+      <c r="I809" s="28"/>
+      <c r="J809" s="28"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="I810" s="34"/>
-      <c r="J810" s="34"/>
+      <c r="I810" s="28"/>
+      <c r="J810" s="28"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="I811" s="34"/>
-      <c r="J811" s="34"/>
+      <c r="I811" s="28"/>
+      <c r="J811" s="28"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="I812" s="34"/>
-      <c r="J812" s="34"/>
+      <c r="I812" s="28"/>
+      <c r="J812" s="28"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="I813" s="34"/>
-      <c r="J813" s="34"/>
+      <c r="I813" s="28"/>
+      <c r="J813" s="28"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="I814" s="34"/>
-      <c r="J814" s="34"/>
+      <c r="I814" s="28"/>
+      <c r="J814" s="28"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="I815" s="34"/>
-      <c r="J815" s="34"/>
+      <c r="I815" s="28"/>
+      <c r="J815" s="28"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="I816" s="34"/>
-      <c r="J816" s="34"/>
+      <c r="I816" s="28"/>
+      <c r="J816" s="28"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="I817" s="34"/>
-      <c r="J817" s="34"/>
+      <c r="I817" s="28"/>
+      <c r="J817" s="28"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="I818" s="34"/>
-      <c r="J818" s="34"/>
+      <c r="I818" s="28"/>
+      <c r="J818" s="28"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="I819" s="34"/>
-      <c r="J819" s="34"/>
+      <c r="I819" s="28"/>
+      <c r="J819" s="28"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="I820" s="34"/>
-      <c r="J820" s="34"/>
+      <c r="I820" s="28"/>
+      <c r="J820" s="28"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="I821" s="34"/>
-      <c r="J821" s="34"/>
+      <c r="I821" s="28"/>
+      <c r="J821" s="28"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="I822" s="34"/>
-      <c r="J822" s="34"/>
+      <c r="I822" s="28"/>
+      <c r="J822" s="28"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="I823" s="34"/>
-      <c r="J823" s="34"/>
+      <c r="I823" s="28"/>
+      <c r="J823" s="28"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="I824" s="34"/>
-      <c r="J824" s="34"/>
+      <c r="I824" s="28"/>
+      <c r="J824" s="28"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="I825" s="34"/>
-      <c r="J825" s="34"/>
+      <c r="I825" s="28"/>
+      <c r="J825" s="28"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="I826" s="34"/>
-      <c r="J826" s="34"/>
+      <c r="I826" s="28"/>
+      <c r="J826" s="28"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="I827" s="34"/>
-      <c r="J827" s="34"/>
+      <c r="I827" s="28"/>
+      <c r="J827" s="28"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="I828" s="34"/>
-      <c r="J828" s="34"/>
+      <c r="I828" s="28"/>
+      <c r="J828" s="28"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="I829" s="34"/>
-      <c r="J829" s="34"/>
+      <c r="I829" s="28"/>
+      <c r="J829" s="28"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="I830" s="34"/>
-      <c r="J830" s="34"/>
+      <c r="I830" s="28"/>
+      <c r="J830" s="28"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="I831" s="34"/>
-      <c r="J831" s="34"/>
+      <c r="I831" s="28"/>
+      <c r="J831" s="28"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="I832" s="34"/>
-      <c r="J832" s="34"/>
+      <c r="I832" s="28"/>
+      <c r="J832" s="28"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="I833" s="34"/>
-      <c r="J833" s="34"/>
+      <c r="I833" s="28"/>
+      <c r="J833" s="28"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="I834" s="34"/>
-      <c r="J834" s="34"/>
+      <c r="I834" s="28"/>
+      <c r="J834" s="28"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="I835" s="34"/>
-      <c r="J835" s="34"/>
+      <c r="I835" s="28"/>
+      <c r="J835" s="28"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="I836" s="34"/>
-      <c r="J836" s="34"/>
+      <c r="I836" s="28"/>
+      <c r="J836" s="28"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="I837" s="34"/>
-      <c r="J837" s="34"/>
+      <c r="I837" s="28"/>
+      <c r="J837" s="28"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="I838" s="34"/>
-      <c r="J838" s="34"/>
+      <c r="I838" s="28"/>
+      <c r="J838" s="28"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="I839" s="34"/>
-      <c r="J839" s="34"/>
+      <c r="I839" s="28"/>
+      <c r="J839" s="28"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="I840" s="34"/>
-      <c r="J840" s="34"/>
+      <c r="I840" s="28"/>
+      <c r="J840" s="28"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="I841" s="34"/>
-      <c r="J841" s="34"/>
+      <c r="I841" s="28"/>
+      <c r="J841" s="28"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="I842" s="34"/>
-      <c r="J842" s="34"/>
+      <c r="I842" s="28"/>
+      <c r="J842" s="28"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="I843" s="34"/>
-      <c r="J843" s="34"/>
+      <c r="I843" s="28"/>
+      <c r="J843" s="28"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="I844" s="34"/>
-      <c r="J844" s="34"/>
+      <c r="I844" s="28"/>
+      <c r="J844" s="28"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="I845" s="34"/>
-      <c r="J845" s="34"/>
+      <c r="I845" s="28"/>
+      <c r="J845" s="28"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="I846" s="34"/>
-      <c r="J846" s="34"/>
+      <c r="I846" s="28"/>
+      <c r="J846" s="28"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="I847" s="34"/>
-      <c r="J847" s="34"/>
+      <c r="I847" s="28"/>
+      <c r="J847" s="28"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="I848" s="34"/>
-      <c r="J848" s="34"/>
+      <c r="I848" s="28"/>
+      <c r="J848" s="28"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="I849" s="34"/>
-      <c r="J849" s="34"/>
+      <c r="I849" s="28"/>
+      <c r="J849" s="28"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="I850" s="34"/>
-      <c r="J850" s="34"/>
+      <c r="I850" s="28"/>
+      <c r="J850" s="28"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="I851" s="34"/>
-      <c r="J851" s="34"/>
+      <c r="I851" s="28"/>
+      <c r="J851" s="28"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="I852" s="34"/>
-      <c r="J852" s="34"/>
+      <c r="I852" s="28"/>
+      <c r="J852" s="28"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="I853" s="34"/>
-      <c r="J853" s="34"/>
+      <c r="I853" s="28"/>
+      <c r="J853" s="28"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="I854" s="34"/>
-      <c r="J854" s="34"/>
+      <c r="I854" s="28"/>
+      <c r="J854" s="28"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="I855" s="34"/>
-      <c r="J855" s="34"/>
+      <c r="I855" s="28"/>
+      <c r="J855" s="28"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="I856" s="34"/>
-      <c r="J856" s="34"/>
+      <c r="I856" s="28"/>
+      <c r="J856" s="28"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="I857" s="34"/>
-      <c r="J857" s="34"/>
+      <c r="I857" s="28"/>
+      <c r="J857" s="28"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="I858" s="34"/>
-      <c r="J858" s="34"/>
+      <c r="I858" s="28"/>
+      <c r="J858" s="28"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="I859" s="34"/>
-      <c r="J859" s="34"/>
+      <c r="I859" s="28"/>
+      <c r="J859" s="28"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="I860" s="34"/>
-      <c r="J860" s="34"/>
+      <c r="I860" s="28"/>
+      <c r="J860" s="28"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="I861" s="34"/>
-      <c r="J861" s="34"/>
+      <c r="I861" s="28"/>
+      <c r="J861" s="28"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="I862" s="34"/>
-      <c r="J862" s="34"/>
+      <c r="I862" s="28"/>
+      <c r="J862" s="28"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="I863" s="34"/>
-      <c r="J863" s="34"/>
+      <c r="I863" s="28"/>
+      <c r="J863" s="28"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="I864" s="34"/>
-      <c r="J864" s="34"/>
+      <c r="I864" s="28"/>
+      <c r="J864" s="28"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="I865" s="34"/>
-      <c r="J865" s="34"/>
+      <c r="I865" s="28"/>
+      <c r="J865" s="28"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="I866" s="34"/>
-      <c r="J866" s="34"/>
+      <c r="I866" s="28"/>
+      <c r="J866" s="28"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="I867" s="34"/>
-      <c r="J867" s="34"/>
+      <c r="I867" s="28"/>
+      <c r="J867" s="28"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="I868" s="34"/>
-      <c r="J868" s="34"/>
+      <c r="I868" s="28"/>
+      <c r="J868" s="28"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="I869" s="34"/>
-      <c r="J869" s="34"/>
+      <c r="I869" s="28"/>
+      <c r="J869" s="28"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="I870" s="34"/>
-      <c r="J870" s="34"/>
+      <c r="I870" s="28"/>
+      <c r="J870" s="28"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="I871" s="34"/>
-      <c r="J871" s="34"/>
+      <c r="I871" s="28"/>
+      <c r="J871" s="28"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="I872" s="34"/>
-      <c r="J872" s="34"/>
+      <c r="I872" s="28"/>
+      <c r="J872" s="28"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="I873" s="34"/>
-      <c r="J873" s="34"/>
+      <c r="I873" s="28"/>
+      <c r="J873" s="28"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="I874" s="34"/>
-      <c r="J874" s="34"/>
+      <c r="I874" s="28"/>
+      <c r="J874" s="28"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="I875" s="34"/>
-      <c r="J875" s="34"/>
+      <c r="I875" s="28"/>
+      <c r="J875" s="28"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="I876" s="34"/>
-      <c r="J876" s="34"/>
+      <c r="I876" s="28"/>
+      <c r="J876" s="28"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="I877" s="34"/>
-      <c r="J877" s="34"/>
+      <c r="I877" s="28"/>
+      <c r="J877" s="28"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="I878" s="34"/>
-      <c r="J878" s="34"/>
+      <c r="I878" s="28"/>
+      <c r="J878" s="28"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="I879" s="34"/>
-      <c r="J879" s="34"/>
+      <c r="I879" s="28"/>
+      <c r="J879" s="28"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="I880" s="34"/>
-      <c r="J880" s="34"/>
+      <c r="I880" s="28"/>
+      <c r="J880" s="28"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="I881" s="34"/>
-      <c r="J881" s="34"/>
+      <c r="I881" s="28"/>
+      <c r="J881" s="28"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="I882" s="34"/>
-      <c r="J882" s="34"/>
+      <c r="I882" s="28"/>
+      <c r="J882" s="28"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="I883" s="34"/>
-      <c r="J883" s="34"/>
+      <c r="I883" s="28"/>
+      <c r="J883" s="28"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="I884" s="34"/>
-      <c r="J884" s="34"/>
+      <c r="I884" s="28"/>
+      <c r="J884" s="28"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="I885" s="34"/>
-      <c r="J885" s="34"/>
+      <c r="I885" s="28"/>
+      <c r="J885" s="28"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="I886" s="34"/>
-      <c r="J886" s="34"/>
+      <c r="I886" s="28"/>
+      <c r="J886" s="28"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="I887" s="34"/>
-      <c r="J887" s="34"/>
+      <c r="I887" s="28"/>
+      <c r="J887" s="28"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="I888" s="34"/>
-      <c r="J888" s="34"/>
+      <c r="I888" s="28"/>
+      <c r="J888" s="28"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="I889" s="34"/>
-      <c r="J889" s="34"/>
+      <c r="I889" s="28"/>
+      <c r="J889" s="28"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="I890" s="34"/>
-      <c r="J890" s="34"/>
+      <c r="I890" s="28"/>
+      <c r="J890" s="28"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="I891" s="34"/>
-      <c r="J891" s="34"/>
+      <c r="I891" s="28"/>
+      <c r="J891" s="28"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="I892" s="34"/>
-      <c r="J892" s="34"/>
+      <c r="I892" s="28"/>
+      <c r="J892" s="28"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="I893" s="34"/>
-      <c r="J893" s="34"/>
+      <c r="I893" s="28"/>
+      <c r="J893" s="28"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="I894" s="34"/>
-      <c r="J894" s="34"/>
+      <c r="I894" s="28"/>
+      <c r="J894" s="28"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="I895" s="34"/>
-      <c r="J895" s="34"/>
+      <c r="I895" s="28"/>
+      <c r="J895" s="28"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="I896" s="34"/>
-      <c r="J896" s="34"/>
+      <c r="I896" s="28"/>
+      <c r="J896" s="28"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="I897" s="34"/>
-      <c r="J897" s="34"/>
+      <c r="I897" s="28"/>
+      <c r="J897" s="28"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="I898" s="34"/>
-      <c r="J898" s="34"/>
+      <c r="I898" s="28"/>
+      <c r="J898" s="28"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="I899" s="34"/>
-      <c r="J899" s="34"/>
+      <c r="I899" s="28"/>
+      <c r="J899" s="28"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="I900" s="34"/>
-      <c r="J900" s="34"/>
+      <c r="I900" s="28"/>
+      <c r="J900" s="28"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="I901" s="34"/>
-      <c r="J901" s="34"/>
+      <c r="I901" s="28"/>
+      <c r="J901" s="28"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="I902" s="34"/>
-      <c r="J902" s="34"/>
+      <c r="I902" s="28"/>
+      <c r="J902" s="28"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="I903" s="34"/>
-      <c r="J903" s="34"/>
+      <c r="I903" s="28"/>
+      <c r="J903" s="28"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="I904" s="34"/>
-      <c r="J904" s="34"/>
+      <c r="I904" s="28"/>
+      <c r="J904" s="28"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="I905" s="34"/>
-      <c r="J905" s="34"/>
+      <c r="I905" s="28"/>
+      <c r="J905" s="28"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="I906" s="34"/>
-      <c r="J906" s="34"/>
+      <c r="I906" s="28"/>
+      <c r="J906" s="28"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="I907" s="34"/>
-      <c r="J907" s="34"/>
+      <c r="I907" s="28"/>
+      <c r="J907" s="28"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="I908" s="34"/>
-      <c r="J908" s="34"/>
+      <c r="I908" s="28"/>
+      <c r="J908" s="28"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="I909" s="34"/>
-      <c r="J909" s="34"/>
+      <c r="I909" s="28"/>
+      <c r="J909" s="28"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="I910" s="34"/>
-      <c r="J910" s="34"/>
+      <c r="I910" s="28"/>
+      <c r="J910" s="28"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="I911" s="34"/>
-      <c r="J911" s="34"/>
+      <c r="I911" s="28"/>
+      <c r="J911" s="28"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="I912" s="34"/>
-      <c r="J912" s="34"/>
+      <c r="I912" s="28"/>
+      <c r="J912" s="28"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="I913" s="34"/>
-      <c r="J913" s="34"/>
+      <c r="I913" s="28"/>
+      <c r="J913" s="28"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="I914" s="34"/>
-      <c r="J914" s="34"/>
+      <c r="I914" s="28"/>
+      <c r="J914" s="28"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="I915" s="34"/>
-      <c r="J915" s="34"/>
+      <c r="I915" s="28"/>
+      <c r="J915" s="28"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="I916" s="34"/>
-      <c r="J916" s="34"/>
+      <c r="I916" s="28"/>
+      <c r="J916" s="28"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="I917" s="34"/>
-      <c r="J917" s="34"/>
+      <c r="I917" s="28"/>
+      <c r="J917" s="28"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="I918" s="34"/>
-      <c r="J918" s="34"/>
+      <c r="I918" s="28"/>
+      <c r="J918" s="28"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="I919" s="34"/>
-      <c r="J919" s="34"/>
+      <c r="I919" s="28"/>
+      <c r="J919" s="28"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="I920" s="34"/>
-      <c r="J920" s="34"/>
+      <c r="I920" s="28"/>
+      <c r="J920" s="28"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="I921" s="34"/>
-      <c r="J921" s="34"/>
+      <c r="I921" s="28"/>
+      <c r="J921" s="28"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="I922" s="34"/>
-      <c r="J922" s="34"/>
+      <c r="I922" s="28"/>
+      <c r="J922" s="28"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="I923" s="34"/>
-      <c r="J923" s="34"/>
+      <c r="I923" s="28"/>
+      <c r="J923" s="28"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="I924" s="34"/>
-      <c r="J924" s="34"/>
+      <c r="I924" s="28"/>
+      <c r="J924" s="28"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="I925" s="34"/>
-      <c r="J925" s="34"/>
+      <c r="I925" s="28"/>
+      <c r="J925" s="28"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="I926" s="34"/>
-      <c r="J926" s="34"/>
+      <c r="I926" s="28"/>
+      <c r="J926" s="28"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="I927" s="34"/>
-      <c r="J927" s="34"/>
+      <c r="I927" s="28"/>
+      <c r="J927" s="28"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="I928" s="34"/>
-      <c r="J928" s="34"/>
+      <c r="I928" s="28"/>
+      <c r="J928" s="28"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="I929" s="34"/>
-      <c r="J929" s="34"/>
+      <c r="I929" s="28"/>
+      <c r="J929" s="28"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="I930" s="34"/>
-      <c r="J930" s="34"/>
+      <c r="I930" s="28"/>
+      <c r="J930" s="28"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="I931" s="34"/>
-      <c r="J931" s="34"/>
+      <c r="I931" s="28"/>
+      <c r="J931" s="28"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="I932" s="34"/>
-      <c r="J932" s="34"/>
+      <c r="I932" s="28"/>
+      <c r="J932" s="28"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="I933" s="34"/>
-      <c r="J933" s="34"/>
+      <c r="I933" s="28"/>
+      <c r="J933" s="28"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="I934" s="34"/>
-      <c r="J934" s="34"/>
+      <c r="I934" s="28"/>
+      <c r="J934" s="28"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="I935" s="34"/>
-      <c r="J935" s="34"/>
+      <c r="I935" s="28"/>
+      <c r="J935" s="28"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="I936" s="34"/>
-      <c r="J936" s="34"/>
+      <c r="I936" s="28"/>
+      <c r="J936" s="28"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="I937" s="34"/>
-      <c r="J937" s="34"/>
+      <c r="I937" s="28"/>
+      <c r="J937" s="28"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="I938" s="34"/>
-      <c r="J938" s="34"/>
+      <c r="I938" s="28"/>
+      <c r="J938" s="28"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="I939" s="34"/>
-      <c r="J939" s="34"/>
+      <c r="I939" s="28"/>
+      <c r="J939" s="28"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="I940" s="34"/>
-      <c r="J940" s="34"/>
+      <c r="I940" s="28"/>
+      <c r="J940" s="28"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="I941" s="34"/>
-      <c r="J941" s="34"/>
+      <c r="I941" s="28"/>
+      <c r="J941" s="28"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="I942" s="34"/>
-      <c r="J942" s="34"/>
+      <c r="I942" s="28"/>
+      <c r="J942" s="28"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="I943" s="34"/>
-      <c r="J943" s="34"/>
+      <c r="I943" s="28"/>
+      <c r="J943" s="28"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="I944" s="34"/>
-      <c r="J944" s="34"/>
+      <c r="I944" s="28"/>
+      <c r="J944" s="28"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="I945" s="34"/>
-      <c r="J945" s="34"/>
+      <c r="I945" s="28"/>
+      <c r="J945" s="28"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="I946" s="34"/>
-      <c r="J946" s="34"/>
+      <c r="I946" s="28"/>
+      <c r="J946" s="28"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="I947" s="34"/>
-      <c r="J947" s="34"/>
+      <c r="I947" s="28"/>
+      <c r="J947" s="28"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="I948" s="34"/>
-      <c r="J948" s="34"/>
+      <c r="I948" s="28"/>
+      <c r="J948" s="28"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="I949" s="34"/>
-      <c r="J949" s="34"/>
+      <c r="I949" s="28"/>
+      <c r="J949" s="28"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="I950" s="34"/>
-      <c r="J950" s="34"/>
+      <c r="I950" s="28"/>
+      <c r="J950" s="28"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="I951" s="34"/>
-      <c r="J951" s="34"/>
+      <c r="I951" s="28"/>
+      <c r="J951" s="28"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="I952" s="34"/>
-      <c r="J952" s="34"/>
+      <c r="I952" s="28"/>
+      <c r="J952" s="28"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="I953" s="34"/>
-      <c r="J953" s="34"/>
+      <c r="I953" s="28"/>
+      <c r="J953" s="28"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="I954" s="34"/>
-      <c r="J954" s="34"/>
+      <c r="I954" s="28"/>
+      <c r="J954" s="28"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="I955" s="34"/>
-      <c r="J955" s="34"/>
+      <c r="I955" s="28"/>
+      <c r="J955" s="28"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="I956" s="34"/>
-      <c r="J956" s="34"/>
+      <c r="I956" s="28"/>
+      <c r="J956" s="28"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="I957" s="34"/>
-      <c r="J957" s="34"/>
+      <c r="I957" s="28"/>
+      <c r="J957" s="28"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="I958" s="34"/>
-      <c r="J958" s="34"/>
+      <c r="I958" s="28"/>
+      <c r="J958" s="28"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="I959" s="34"/>
-      <c r="J959" s="34"/>
+      <c r="I959" s="28"/>
+      <c r="J959" s="28"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="I960" s="34"/>
-      <c r="J960" s="34"/>
+      <c r="I960" s="28"/>
+      <c r="J960" s="28"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="I961" s="34"/>
-      <c r="J961" s="34"/>
+      <c r="I961" s="28"/>
+      <c r="J961" s="28"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="I962" s="34"/>
-      <c r="J962" s="34"/>
+      <c r="I962" s="28"/>
+      <c r="J962" s="28"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="I963" s="34"/>
-      <c r="J963" s="34"/>
+      <c r="I963" s="28"/>
+      <c r="J963" s="28"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="I964" s="34"/>
-      <c r="J964" s="34"/>
+      <c r="I964" s="28"/>
+      <c r="J964" s="28"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="I965" s="34"/>
-      <c r="J965" s="34"/>
+      <c r="I965" s="28"/>
+      <c r="J965" s="28"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="I966" s="34"/>
-      <c r="J966" s="34"/>
+      <c r="I966" s="28"/>
+      <c r="J966" s="28"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="I967" s="34"/>
-      <c r="J967" s="34"/>
+      <c r="I967" s="28"/>
+      <c r="J967" s="28"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="I968" s="34"/>
-      <c r="J968" s="34"/>
+      <c r="I968" s="28"/>
+      <c r="J968" s="28"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="I969" s="34"/>
-      <c r="J969" s="34"/>
+      <c r="I969" s="28"/>
+      <c r="J969" s="28"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="I970" s="34"/>
-      <c r="J970" s="34"/>
+      <c r="I970" s="28"/>
+      <c r="J970" s="28"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="I971" s="34"/>
-      <c r="J971" s="34"/>
+      <c r="I971" s="28"/>
+      <c r="J971" s="28"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="I972" s="34"/>
-      <c r="J972" s="34"/>
+      <c r="I972" s="28"/>
+      <c r="J972" s="28"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="I973" s="34"/>
-      <c r="J973" s="34"/>
+      <c r="I973" s="28"/>
+      <c r="J973" s="28"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="I974" s="34"/>
-      <c r="J974" s="34"/>
+      <c r="I974" s="28"/>
+      <c r="J974" s="28"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="I975" s="34"/>
-      <c r="J975" s="34"/>
+      <c r="I975" s="28"/>
+      <c r="J975" s="28"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="I976" s="34"/>
-      <c r="J976" s="34"/>
+      <c r="I976" s="28"/>
+      <c r="J976" s="28"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="I977" s="34"/>
-      <c r="J977" s="34"/>
+      <c r="I977" s="28"/>
+      <c r="J977" s="28"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="I978" s="34"/>
-      <c r="J978" s="34"/>
+      <c r="I978" s="28"/>
+      <c r="J978" s="28"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="I979" s="34"/>
-      <c r="J979" s="34"/>
+      <c r="I979" s="28"/>
+      <c r="J979" s="28"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="I980" s="34"/>
-      <c r="J980" s="34"/>
+      <c r="I980" s="28"/>
+      <c r="J980" s="28"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="I981" s="34"/>
-      <c r="J981" s="34"/>
+      <c r="I981" s="28"/>
+      <c r="J981" s="28"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="I982" s="34"/>
-      <c r="J982" s="34"/>
+      <c r="I982" s="28"/>
+      <c r="J982" s="28"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="I983" s="34"/>
-      <c r="J983" s="34"/>
+      <c r="I983" s="28"/>
+      <c r="J983" s="28"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="I984" s="34"/>
-      <c r="J984" s="34"/>
+      <c r="I984" s="28"/>
+      <c r="J984" s="28"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="I985" s="34"/>
-      <c r="J985" s="34"/>
+      <c r="I985" s="28"/>
+      <c r="J985" s="28"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="I986" s="34"/>
-      <c r="J986" s="34"/>
+      <c r="I986" s="28"/>
+      <c r="J986" s="28"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="I987" s="34"/>
-      <c r="J987" s="34"/>
+      <c r="I987" s="28"/>
+      <c r="J987" s="28"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="I988" s="34"/>
-      <c r="J988" s="34"/>
+      <c r="I988" s="28"/>
+      <c r="J988" s="28"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="I989" s="34"/>
-      <c r="J989" s="34"/>
+      <c r="I989" s="28"/>
+      <c r="J989" s="28"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="I990" s="34"/>
-      <c r="J990" s="34"/>
+      <c r="I990" s="28"/>
+      <c r="J990" s="28"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="I991" s="34"/>
-      <c r="J991" s="34"/>
+      <c r="I991" s="28"/>
+      <c r="J991" s="28"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="I992" s="34"/>
-      <c r="J992" s="34"/>
+      <c r="I992" s="28"/>
+      <c r="J992" s="28"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="I993" s="34"/>
-      <c r="J993" s="34"/>
+      <c r="I993" s="28"/>
+      <c r="J993" s="28"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="I994" s="34"/>
-      <c r="J994" s="34"/>
+      <c r="I994" s="28"/>
+      <c r="J994" s="28"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="I995" s="34"/>
-      <c r="J995" s="34"/>
+      <c r="I995" s="28"/>
+      <c r="J995" s="28"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="I996" s="34"/>
-      <c r="J996" s="34"/>
+      <c r="I996" s="28"/>
+      <c r="J996" s="28"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="I997" s="34"/>
-      <c r="J997" s="34"/>
+      <c r="I997" s="28"/>
+      <c r="J997" s="28"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="I998" s="34"/>
-      <c r="J998" s="34"/>
+      <c r="I998" s="28"/>
+      <c r="J998" s="28"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="I999" s="34"/>
-      <c r="J999" s="34"/>
+      <c r="I999" s="28"/>
+      <c r="J999" s="28"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="I1000" s="34"/>
-      <c r="J1000" s="34"/>
+      <c r="I1000" s="28"/>
+      <c r="J1000" s="28"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="I1001" s="34"/>
-      <c r="J1001" s="34"/>
+      <c r="I1001" s="28"/>
+      <c r="J1001" s="28"/>
     </row>
     <row r="1002" ht="15.75" customHeight="1">
-      <c r="I1002" s="34"/>
-      <c r="J1002" s="34"/>
+      <c r="I1002" s="28"/>
+      <c r="J1002" s="28"/>
     </row>
     <row r="1003" ht="15.75" customHeight="1">
-      <c r="I1003" s="34"/>
-      <c r="J1003" s="34"/>
+      <c r="I1003" s="28"/>
+      <c r="J1003" s="28"/>
     </row>
     <row r="1004" ht="15.75" customHeight="1">
-      <c r="I1004" s="34"/>
-      <c r="J1004" s="34"/>
+      <c r="I1004" s="28"/>
+      <c r="J1004" s="28"/>
     </row>
     <row r="1005" ht="15.75" customHeight="1">
-      <c r="I1005" s="34"/>
-      <c r="J1005" s="34"/>
+      <c r="I1005" s="28"/>
+      <c r="J1005" s="28"/>
     </row>
     <row r="1006" ht="15.75" customHeight="1">
-      <c r="I1006" s="34"/>
-      <c r="J1006" s="34"/>
+      <c r="I1006" s="28"/>
+      <c r="J1006" s="28"/>
     </row>
     <row r="1007" ht="15.75" customHeight="1">
-      <c r="I1007" s="34"/>
-      <c r="J1007" s="34"/>
+      <c r="I1007" s="28"/>
+      <c r="J1007" s="28"/>
     </row>
     <row r="1008" ht="15.75" customHeight="1">
-      <c r="I1008" s="34"/>
-      <c r="J1008" s="34"/>
+      <c r="I1008" s="28"/>
+      <c r="J1008" s="28"/>
     </row>
     <row r="1009" ht="15.75" customHeight="1">
-      <c r="I1009" s="34"/>
-      <c r="J1009" s="34"/>
+      <c r="I1009" s="28"/>
+      <c r="J1009" s="28"/>
     </row>
     <row r="1010" ht="15.75" customHeight="1">
-      <c r="I1010" s="34"/>
-      <c r="J1010" s="34"/>
+      <c r="I1010" s="28"/>
+      <c r="J1010" s="28"/>
     </row>
     <row r="1011" ht="15.75" customHeight="1">
-      <c r="I1011" s="34"/>
-      <c r="J1011" s="34"/>
+      <c r="I1011" s="28"/>
+      <c r="J1011" s="28"/>
     </row>
     <row r="1012" ht="15.75" customHeight="1">
-      <c r="I1012" s="34"/>
-      <c r="J1012" s="34"/>
+      <c r="I1012" s="28"/>
+      <c r="J1012" s="28"/>
     </row>
     <row r="1013" ht="15.75" customHeight="1">
-      <c r="I1013" s="34"/>
-      <c r="J1013" s="34"/>
+      <c r="I1013" s="28"/>
+      <c r="J1013" s="28"/>
     </row>
     <row r="1014" ht="15.75" customHeight="1">
-      <c r="I1014" s="34"/>
-      <c r="J1014" s="34"/>
+      <c r="I1014" s="28"/>
+      <c r="J1014" s="28"/>
     </row>
     <row r="1015" ht="15.75" customHeight="1">
-      <c r="I1015" s="34"/>
-      <c r="J1015" s="34"/>
+      <c r="I1015" s="28"/>
+      <c r="J1015" s="28"/>
     </row>
     <row r="1016" ht="15.75" customHeight="1">
-      <c r="I1016" s="34"/>
-      <c r="J1016" s="34"/>
+      <c r="I1016" s="28"/>
+      <c r="J1016" s="28"/>
     </row>
     <row r="1017" ht="15.75" customHeight="1">
-      <c r="I1017" s="34"/>
-      <c r="J1017" s="34"/>
+      <c r="I1017" s="28"/>
+      <c r="J1017" s="28"/>
     </row>
     <row r="1018" ht="15.75" customHeight="1">
-      <c r="I1018" s="34"/>
-      <c r="J1018" s="34"/>
+      <c r="I1018" s="28"/>
+      <c r="J1018" s="28"/>
     </row>
     <row r="1019" ht="15.75" customHeight="1">
-      <c r="I1019" s="34"/>
-      <c r="J1019" s="34"/>
+      <c r="I1019" s="28"/>
+      <c r="J1019" s="28"/>
     </row>
     <row r="1020" ht="15.75" customHeight="1">
-      <c r="I1020" s="34"/>
-      <c r="J1020" s="34"/>
+      <c r="I1020" s="28"/>
+      <c r="J1020" s="28"/>
     </row>
     <row r="1021" ht="15.75" customHeight="1">
-      <c r="I1021" s="34"/>
-      <c r="J1021" s="34"/>
+      <c r="I1021" s="28"/>
+      <c r="J1021" s="28"/>
     </row>
     <row r="1022" ht="15.75" customHeight="1">
-      <c r="I1022" s="34"/>
-      <c r="J1022" s="34"/>
+      <c r="I1022" s="28"/>
+      <c r="J1022" s="28"/>
     </row>
     <row r="1023" ht="15.75" customHeight="1">
-      <c r="I1023" s="34"/>
-      <c r="J1023" s="34"/>
-    </row>
-    <row r="1024" ht="15.75" customHeight="1">
-      <c r="I1024" s="34"/>
-      <c r="J1024" s="34"/>
+      <c r="I1023" s="28"/>
+      <c r="J1023" s="28"/>
     </row>
   </sheetData>
   <printOptions/>
